--- a/00框架文件/04Formula.xlsx
+++ b/00框架文件/04Formula.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B2A5EC-4080-4AC7-8A91-0B10E2B016B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8287A9E5-CBCD-41F8-983E-463ACFDB282A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -277,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TRIM(RC2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>=IFERROR(IFNA(RC[-2],RC[-1]),0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TRIM(LEFT(RC2,RC[9]-1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02SR.xlsx</t>
   </si>
   <si>
@@ -375,6 +367,14 @@
   </si>
   <si>
     <t>=FIND("#",RC[-3],RC[-1]+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TRIM(LEFT(RC2,RC[9]-1))&amp;"/"&amp;RC16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=TRIM(RC2)&amp;"/"&amp;RC16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,6 +479,9 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="A2" t="str">
+            <v>上海昊海生物科技股份有限公司-基准账簿</v>
+          </cell>
           <cell r="B2" t="str">
             <v>01 生科</v>
           </cell>
@@ -487,6 +490,9 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3" t="str">
+            <v>上海其胜生物制剂有限公司-基准账簿</v>
+          </cell>
           <cell r="B3" t="str">
             <v>02 其胜</v>
           </cell>
@@ -495,6 +501,9 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="A4" t="str">
+            <v>上海建华精细生物制品有限公司-基准账簿</v>
+          </cell>
           <cell r="B4" t="str">
             <v>03 建华</v>
           </cell>
@@ -503,6 +512,9 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5" t="str">
+            <v>上海利康瑞生物工程有限公司-基准账簿</v>
+          </cell>
           <cell r="B5" t="str">
             <v>04 利康瑞</v>
           </cell>
@@ -522,6 +534,9 @@
           </cell>
         </row>
         <row r="7">
+          <cell r="A7" t="str">
+            <v>上海昊海医药科技发展有限公司-基准账簿</v>
+          </cell>
           <cell r="B7" t="str">
             <v>06 发展</v>
           </cell>
@@ -546,6 +561,9 @@
           </cell>
         </row>
         <row r="10">
+          <cell r="A10" t="str">
+            <v>深圳市新产业眼科新技术有限公司-基准账簿</v>
+          </cell>
           <cell r="B10" t="str">
             <v>10 新产业</v>
           </cell>
@@ -554,6 +572,9 @@
           </cell>
         </row>
         <row r="11">
+          <cell r="A11" t="str">
+            <v>河南宇宙人工晶状体研制有限公司-基准账簿</v>
+          </cell>
           <cell r="B11" t="str">
             <v>11 河南宇宙</v>
           </cell>
@@ -610,6 +631,9 @@
           </cell>
         </row>
         <row r="18">
+          <cell r="A18" t="str">
+            <v>河南赛美视生物科技有限公司-基准账簿</v>
+          </cell>
           <cell r="B18" t="str">
             <v>18 河南赛美视</v>
           </cell>
@@ -618,6 +642,9 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19" t="str">
+            <v>杭州爱晶伦科技有限公司-基准账簿</v>
+          </cell>
           <cell r="B19" t="str">
             <v>19 爱晶伦</v>
           </cell>
@@ -634,6 +661,9 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="A21" t="str">
+            <v>河北鑫视康隐形眼镜有限公司-基准账簿</v>
+          </cell>
           <cell r="B21" t="str">
             <v>21 河北鑫视康</v>
           </cell>
@@ -642,6 +672,9 @@
           </cell>
         </row>
         <row r="22">
+          <cell r="A22" t="str">
+            <v>上海亨泰视觉科技有限公司-基准账簿</v>
+          </cell>
           <cell r="B22" t="str">
             <v>22 亨泰视觉</v>
           </cell>
@@ -660,7 +693,12 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="G2"/>
+          <cell r="F2" t="str">
+            <v>RMB/BS</v>
+          </cell>
+          <cell r="G2">
+            <v>1</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="F3" t="str">
@@ -686,17 +724,13 @@
             <v>8.9410000000000007</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="G6"/>
-        </row>
-        <row r="7">
-          <cell r="G7"/>
-        </row>
-        <row r="8">
-          <cell r="G8"/>
-        </row>
         <row r="9">
-          <cell r="G9"/>
+          <cell r="F9" t="str">
+            <v>RMB/PL</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="F10" t="str">
@@ -722,29 +756,13 @@
             <v>8.9156499999999994</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="G13"/>
-        </row>
         <row r="14">
-          <cell r="G14"/>
-        </row>
-        <row r="15">
-          <cell r="G15"/>
-        </row>
-        <row r="16">
-          <cell r="G16"/>
-        </row>
-        <row r="17">
-          <cell r="G17"/>
-        </row>
-        <row r="18">
-          <cell r="G18"/>
-        </row>
-        <row r="19">
-          <cell r="G19"/>
-        </row>
-        <row r="20">
-          <cell r="G20"/>
+          <cell r="F14" t="str">
+            <v>RMB/PV</v>
+          </cell>
+          <cell r="G14">
+            <v>1</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
@@ -894,13 +912,13 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>预付账款</v>
+            <v>应收账款坏账准备</v>
           </cell>
           <cell r="B8" t="str">
-            <v>预付款项</v>
+            <v>应收账款</v>
           </cell>
           <cell r="C8" t="str">
-            <v>预付款项</v>
+            <v>应收账款</v>
           </cell>
           <cell r="D8" t="str">
             <v>BS</v>
@@ -908,10 +926,13 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>应收股利</v>
+            <v>预付账款</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>预付款项</v>
           </cell>
           <cell r="C9" t="str">
-            <v>应收股利</v>
+            <v>预付款项</v>
           </cell>
           <cell r="D9" t="str">
             <v>BS</v>
@@ -919,13 +940,10 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>应收利息</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>应收利息</v>
+            <v>应收股利</v>
           </cell>
           <cell r="C10" t="str">
-            <v>应收利息</v>
+            <v>应收股利</v>
           </cell>
           <cell r="D10" t="str">
             <v>BS</v>
@@ -933,13 +951,13 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>其他应收款</v>
+            <v>应收利息</v>
           </cell>
           <cell r="B11" t="str">
-            <v>其他应收款</v>
+            <v>应收利息</v>
           </cell>
           <cell r="C11" t="str">
-            <v>其他应收款</v>
+            <v>应收利息</v>
           </cell>
           <cell r="D11" t="str">
             <v>BS</v>
@@ -947,7 +965,7 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>其他应收款坏账准备</v>
+            <v>其他应收款</v>
           </cell>
           <cell r="B12" t="str">
             <v>其他应收款</v>
@@ -961,13 +979,13 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>材料采购</v>
+            <v>其他应收款坏账准备</v>
           </cell>
           <cell r="B13" t="str">
-            <v>存货</v>
+            <v>其他应收款</v>
           </cell>
           <cell r="C13" t="str">
-            <v>存货</v>
+            <v>其他应收款</v>
           </cell>
           <cell r="D13" t="str">
             <v>BS</v>
@@ -975,7 +993,7 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>在途物资</v>
+            <v>材料采购</v>
           </cell>
           <cell r="B14" t="str">
             <v>存货</v>
@@ -989,7 +1007,7 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>原材料</v>
+            <v>在途物资</v>
           </cell>
           <cell r="B15" t="str">
             <v>存货</v>
@@ -1003,7 +1021,7 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>材料成本差异</v>
+            <v>原材料</v>
           </cell>
           <cell r="B16" t="str">
             <v>存货</v>
@@ -1017,7 +1035,7 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>库存商品</v>
+            <v>半成品</v>
           </cell>
           <cell r="B17" t="str">
             <v>存货</v>
@@ -1031,7 +1049,7 @@
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>发出商品</v>
+            <v>材料成本差异</v>
           </cell>
           <cell r="B18" t="str">
             <v>存货</v>
@@ -1045,7 +1063,7 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>商品进销差价</v>
+            <v>库存商品</v>
           </cell>
           <cell r="B19" t="str">
             <v>存货</v>
@@ -1059,7 +1077,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>委托加工物资</v>
+            <v>发出商品</v>
           </cell>
           <cell r="B20" t="str">
             <v>存货</v>
@@ -1073,7 +1091,7 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>周转材料</v>
+            <v>商品进销差价</v>
           </cell>
           <cell r="B21" t="str">
             <v>存货</v>
@@ -1087,13 +1105,13 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>存货跌价准备</v>
+            <v>委托加工物资</v>
           </cell>
           <cell r="B22" t="str">
             <v>存货</v>
           </cell>
           <cell r="C22" t="str">
-            <v>存货减值准备</v>
+            <v>存货</v>
           </cell>
           <cell r="D22" t="str">
             <v>BS</v>
@@ -1101,13 +1119,13 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>持有至到期投资</v>
+            <v>周转材料</v>
           </cell>
           <cell r="B23" t="str">
-            <v>持有至到期投资</v>
+            <v>存货</v>
           </cell>
           <cell r="C23" t="str">
-            <v>持有至到期投资</v>
+            <v>存货</v>
           </cell>
           <cell r="D23" t="str">
             <v>BS</v>
@@ -1115,13 +1133,13 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>持有至到期投资减值准备</v>
+            <v>存货跌价准备</v>
           </cell>
           <cell r="B24" t="str">
-            <v>持有至到期投资</v>
+            <v>存货</v>
           </cell>
           <cell r="C24" t="str">
-            <v>持有至到期投资</v>
+            <v>存货减值准备</v>
           </cell>
           <cell r="D24" t="str">
             <v>BS</v>
@@ -1129,13 +1147,13 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>可供出售金融资产</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="B25" t="str">
-            <v>可供出售金融资产</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="C25" t="str">
-            <v>可供出售金融资产</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="D25" t="str">
             <v>BS</v>
@@ -1143,13 +1161,13 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>长期股权投资</v>
+            <v>持有至到期投资减值准备</v>
           </cell>
           <cell r="B26" t="str">
-            <v>长期股权投资</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="C26" t="str">
-            <v>长期股权投资</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="D26" t="str">
             <v>BS</v>
@@ -1157,13 +1175,13 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>长期股权投资减值准备</v>
+            <v>可供出售金融资产</v>
           </cell>
           <cell r="B27" t="str">
-            <v>长期股权投资</v>
+            <v>其他权益工具投资</v>
           </cell>
           <cell r="C27" t="str">
-            <v>长期股权投资</v>
+            <v>其他权益工具投资</v>
           </cell>
           <cell r="D27" t="str">
             <v>BS</v>
@@ -1171,13 +1189,13 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>长期应收款</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="B28" t="str">
-            <v>长期应收款</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="C28" t="str">
-            <v>长期应收款</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="D28" t="str">
             <v>BS</v>
@@ -1185,13 +1203,13 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>使用权资产</v>
+            <v>长期股权投资减值准备</v>
           </cell>
           <cell r="B29" t="str">
-            <v>使用权资产</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="C29" t="str">
-            <v>使用权资产</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="D29" t="str">
             <v>BS</v>
@@ -1199,13 +1217,13 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>固定资产</v>
+            <v>长期投资减值准备</v>
           </cell>
           <cell r="B30" t="str">
-            <v>固定资产</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="C30" t="str">
-            <v>固定资产原价</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="D30" t="str">
             <v>BS</v>
@@ -1213,13 +1231,13 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>累计折旧</v>
+            <v>长期应收款</v>
           </cell>
           <cell r="B31" t="str">
-            <v>固定资产</v>
+            <v>长期应收款</v>
           </cell>
           <cell r="C31" t="str">
-            <v>减：累计折旧</v>
+            <v>长期应收款</v>
           </cell>
           <cell r="D31" t="str">
             <v>BS</v>
@@ -1227,13 +1245,13 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>固定资产减值准备</v>
+            <v>使用权资产</v>
           </cell>
           <cell r="B32" t="str">
-            <v>固定资产</v>
+            <v>使用权资产</v>
           </cell>
           <cell r="C32" t="str">
-            <v>固定资产</v>
+            <v>使用权资产</v>
           </cell>
           <cell r="D32" t="str">
             <v>BS</v>
@@ -1241,13 +1259,13 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>在建工程</v>
+            <v>固定资产</v>
           </cell>
           <cell r="B33" t="str">
-            <v>在建工程</v>
+            <v>固定资产</v>
           </cell>
           <cell r="C33" t="str">
-            <v>在建工程</v>
+            <v>固定资产原价</v>
           </cell>
           <cell r="D33" t="str">
             <v>BS</v>
@@ -1255,13 +1273,13 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>工程物资</v>
+            <v>累计折旧</v>
           </cell>
           <cell r="B34" t="str">
-            <v>工程物资</v>
+            <v>固定资产</v>
           </cell>
           <cell r="C34" t="str">
-            <v>工程物资</v>
+            <v>减：累计折旧</v>
           </cell>
           <cell r="D34" t="str">
             <v>BS</v>
@@ -1269,13 +1287,13 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>固定资产清理</v>
+            <v>固定资产减值准备</v>
           </cell>
           <cell r="B35" t="str">
-            <v>固定资产清理</v>
+            <v>固定资产</v>
           </cell>
           <cell r="C35" t="str">
-            <v>固定资产清理</v>
+            <v>固定资产</v>
           </cell>
           <cell r="D35" t="str">
             <v>BS</v>
@@ -1283,13 +1301,13 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>无形资产</v>
+            <v>在建工程</v>
           </cell>
           <cell r="B36" t="str">
-            <v>无形资产</v>
+            <v>在建工程</v>
           </cell>
           <cell r="C36" t="str">
-            <v>无形资产</v>
+            <v>在建工程</v>
           </cell>
           <cell r="D36" t="str">
             <v>BS</v>
@@ -1297,13 +1315,13 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>累计摊销</v>
+            <v>工程物资</v>
           </cell>
           <cell r="B37" t="str">
-            <v>无形资产</v>
+            <v>工程物资</v>
           </cell>
           <cell r="C37" t="str">
-            <v>无形资产</v>
+            <v>工程物资</v>
           </cell>
           <cell r="D37" t="str">
             <v>BS</v>
@@ -1311,13 +1329,13 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>无形资产减值准备</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="B38" t="str">
-            <v>无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="C38" t="str">
-            <v>无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="D38" t="str">
             <v>BS</v>
@@ -1325,13 +1343,13 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>商誉</v>
+            <v>无形资产</v>
           </cell>
           <cell r="B39" t="str">
-            <v>商誉</v>
+            <v>无形资产</v>
           </cell>
           <cell r="C39" t="str">
-            <v>商誉</v>
+            <v>无形资产</v>
           </cell>
           <cell r="D39" t="str">
             <v>BS</v>
@@ -1339,13 +1357,13 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>长期待摊费用</v>
+            <v>累计摊销</v>
           </cell>
           <cell r="B40" t="str">
-            <v>长期待摊费用</v>
+            <v>无形资产</v>
           </cell>
           <cell r="C40" t="str">
-            <v>长期待摊费用</v>
+            <v>无形资产</v>
           </cell>
           <cell r="D40" t="str">
             <v>BS</v>
@@ -1353,13 +1371,13 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>递延所得税资产</v>
+            <v>无形资产减值准备</v>
           </cell>
           <cell r="B41" t="str">
-            <v>递延所得税资产</v>
+            <v>无形资产</v>
           </cell>
           <cell r="C41" t="str">
-            <v>递延所得税资产</v>
+            <v>无形资产</v>
           </cell>
           <cell r="D41" t="str">
             <v>BS</v>
@@ -1367,13 +1385,13 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>短期借款</v>
+            <v>商誉</v>
           </cell>
           <cell r="B42" t="str">
-            <v>短期借款</v>
+            <v>商誉</v>
           </cell>
           <cell r="C42" t="str">
-            <v>短期借款</v>
+            <v>商誉</v>
           </cell>
           <cell r="D42" t="str">
             <v>BS</v>
@@ -1381,13 +1399,13 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>应付票据</v>
+            <v>长期待摊费用</v>
           </cell>
           <cell r="B43" t="str">
-            <v>应付票据</v>
+            <v>长期待摊费用</v>
           </cell>
           <cell r="C43" t="str">
-            <v>应付票据</v>
+            <v>长期待摊费用</v>
           </cell>
           <cell r="D43" t="str">
             <v>BS</v>
@@ -1395,13 +1413,13 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>应付账款</v>
+            <v>递延所得税资产</v>
           </cell>
           <cell r="B44" t="str">
-            <v>应付账款</v>
+            <v>递延所得税资产</v>
           </cell>
           <cell r="C44" t="str">
-            <v>应付账款</v>
+            <v>递延所得税资产</v>
           </cell>
           <cell r="D44" t="str">
             <v>BS</v>
@@ -1409,13 +1427,13 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>预收账款</v>
+            <v>短期借款</v>
           </cell>
           <cell r="B45" t="str">
-            <v>预收款项</v>
+            <v>短期借款</v>
           </cell>
           <cell r="C45" t="str">
-            <v>预收款项</v>
+            <v>短期借款</v>
           </cell>
           <cell r="D45" t="str">
             <v>BS</v>
@@ -1423,13 +1441,13 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>应付职工薪酬</v>
+            <v>应付票据</v>
           </cell>
           <cell r="B46" t="str">
-            <v>应付职工薪酬</v>
+            <v>应付票据</v>
           </cell>
           <cell r="C46" t="str">
-            <v>应付职工薪酬</v>
+            <v>应付票据</v>
           </cell>
           <cell r="D46" t="str">
             <v>BS</v>
@@ -1437,13 +1455,13 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>应交税费</v>
+            <v>应付账款</v>
           </cell>
           <cell r="B47" t="str">
-            <v>应交税费</v>
+            <v>应付账款</v>
           </cell>
           <cell r="C47" t="str">
-            <v>应交税费</v>
+            <v>应付账款</v>
           </cell>
           <cell r="D47" t="str">
             <v>BS</v>
@@ -1451,13 +1469,13 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>应付利息</v>
+            <v>预收账款</v>
           </cell>
           <cell r="B48" t="str">
-            <v>应付利息</v>
+            <v>预收款项</v>
           </cell>
           <cell r="C48" t="str">
-            <v>应付利息</v>
+            <v>预收款项</v>
           </cell>
           <cell r="D48" t="str">
             <v>BS</v>
@@ -1465,10 +1483,13 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>应付股利</v>
+            <v>应付职工薪酬</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>应付职工薪酬</v>
           </cell>
           <cell r="C49" t="str">
-            <v>应付股利</v>
+            <v>应付职工薪酬</v>
           </cell>
           <cell r="D49" t="str">
             <v>BS</v>
@@ -1476,13 +1497,13 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>其他应付款</v>
+            <v>应交税费</v>
           </cell>
           <cell r="B50" t="str">
-            <v>其他应付款</v>
+            <v>应交税费</v>
           </cell>
           <cell r="C50" t="str">
-            <v>其他应付款</v>
+            <v>应交税费</v>
           </cell>
           <cell r="D50" t="str">
             <v>BS</v>
@@ -1490,10 +1511,13 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>递延收益</v>
+            <v>应付利息</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>应付利息</v>
           </cell>
           <cell r="C51" t="str">
-            <v>递延收益-非流动</v>
+            <v>应付利息</v>
           </cell>
           <cell r="D51" t="str">
             <v>BS</v>
@@ -1501,13 +1525,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>租赁负债</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>租赁负债</v>
+            <v>应付股利</v>
           </cell>
           <cell r="C52" t="str">
-            <v>租赁负债</v>
+            <v>应付股利</v>
           </cell>
           <cell r="D52" t="str">
             <v>BS</v>
@@ -1515,13 +1536,13 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>长期借款</v>
+            <v>其他应付款</v>
           </cell>
           <cell r="B53" t="str">
-            <v>长期借款</v>
+            <v>其他应付款</v>
           </cell>
           <cell r="C53" t="str">
-            <v>长期借款</v>
+            <v>其他应付款</v>
           </cell>
           <cell r="D53" t="str">
             <v>BS</v>
@@ -1529,13 +1550,10 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>长期应付款</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>长期应付款</v>
+            <v>递延收益</v>
           </cell>
           <cell r="C54" t="str">
-            <v>长期应付款</v>
+            <v>递延收益-非流动</v>
           </cell>
           <cell r="D54" t="str">
             <v>BS</v>
@@ -1543,13 +1561,13 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>预计负债</v>
+            <v>租赁负债</v>
           </cell>
           <cell r="B55" t="str">
-            <v>预计负债</v>
+            <v>租赁负债</v>
           </cell>
           <cell r="C55" t="str">
-            <v>预计负债</v>
+            <v>租赁负债</v>
           </cell>
           <cell r="D55" t="str">
             <v>BS</v>
@@ -1557,13 +1575,13 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>递延所得税负债</v>
+            <v>长期借款</v>
           </cell>
           <cell r="B56" t="str">
-            <v>递延所得税负债</v>
+            <v>长期借款</v>
           </cell>
           <cell r="C56" t="str">
-            <v>递延所得税负债</v>
+            <v>长期借款</v>
           </cell>
           <cell r="D56" t="str">
             <v>BS</v>
@@ -1571,63 +1589,69 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>实收资本</v>
+            <v>长期应付款</v>
           </cell>
           <cell r="B57" t="str">
-            <v>实收资本（或股本）</v>
+            <v>长期应付款</v>
           </cell>
           <cell r="C57" t="str">
-            <v>实收资本</v>
+            <v>长期应付款</v>
           </cell>
           <cell r="D57" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>资本公积</v>
+            <v>预计负债</v>
           </cell>
           <cell r="B58" t="str">
-            <v>资本公积</v>
+            <v>预计负债</v>
           </cell>
           <cell r="C58" t="str">
-            <v>资本公积</v>
+            <v>预计负债</v>
           </cell>
           <cell r="D58" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>盈余公积</v>
+            <v>递延所得税负债</v>
           </cell>
           <cell r="B59" t="str">
-            <v>盈余公积</v>
+            <v>递延所得税负债</v>
           </cell>
           <cell r="C59" t="str">
-            <v>盈余公积</v>
+            <v>递延所得税负债</v>
           </cell>
           <cell r="D59" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>本年利润</v>
+            <v>实收资本</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>实收资本（或股本）</v>
           </cell>
           <cell r="C60" t="str">
-            <v>未分配利润</v>
+            <v>实收资本</v>
           </cell>
           <cell r="D60" t="str">
-            <v>PL</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>利润分配</v>
+            <v>资本公积</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>资本公积</v>
           </cell>
           <cell r="C61" t="str">
-            <v>未分配利润</v>
+            <v>资本公积</v>
           </cell>
           <cell r="D61" t="str">
             <v>PV</v>
@@ -1635,13 +1659,13 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>库存股</v>
+            <v>盈余公积</v>
           </cell>
           <cell r="B62" t="str">
-            <v>减：库存股</v>
+            <v>盈余公积</v>
           </cell>
           <cell r="C62" t="str">
-            <v>减：库存股</v>
+            <v>盈余公积</v>
           </cell>
           <cell r="D62" t="str">
             <v>PV</v>
@@ -1649,13 +1673,13 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>其他综合收益</v>
+            <v>利润分配</v>
           </cell>
           <cell r="B63" t="str">
-            <v>其他综合收益</v>
+            <v>年初未分配利润（调整后）</v>
           </cell>
           <cell r="C63" t="str">
-            <v>其他综合收益</v>
+            <v>年初未分配利润（调整后）</v>
           </cell>
           <cell r="D63" t="str">
             <v>PV</v>
@@ -1663,36 +1687,35 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>研发支出</v>
-          </cell>
-          <cell r="C64"/>
+            <v>库存股</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>减：库存股</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>减：库存股</v>
+          </cell>
           <cell r="D64" t="str">
-            <v>PL</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>主营业务收入</v>
+            <v>其他综合收益</v>
           </cell>
           <cell r="B65" t="str">
-            <v>营业收入</v>
+            <v>其他综合收益</v>
           </cell>
           <cell r="C65" t="str">
-            <v>主营业务收入</v>
+            <v>其他综合收益</v>
           </cell>
           <cell r="D65" t="str">
-            <v>PL</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>利息收入</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>利息收入</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>财务费用</v>
+            <v>研发支出</v>
           </cell>
           <cell r="D66" t="str">
             <v>PL</v>
@@ -1700,13 +1723,13 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>其他业务收入</v>
+            <v>主营业务收入</v>
           </cell>
           <cell r="B67" t="str">
-            <v>其他业务收入</v>
+            <v>营业收入</v>
           </cell>
           <cell r="C67" t="str">
-            <v>其他业务收入</v>
+            <v>主营业务收入</v>
           </cell>
           <cell r="D67" t="str">
             <v>PL</v>
@@ -1714,10 +1737,10 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>汇兑损益</v>
+            <v>利息收入</v>
           </cell>
           <cell r="B68" t="str">
-            <v>汇兑收益（损失以“-”号填列）</v>
+            <v>利息收入</v>
           </cell>
           <cell r="C68" t="str">
             <v>财务费用</v>
@@ -1728,13 +1751,13 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>公允价值变动损益</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="B69" t="str">
-            <v>公允价值变动收益（损失以“-”号填列）</v>
+            <v>营业收入</v>
           </cell>
           <cell r="C69" t="str">
-            <v>公允价值变动收益</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="D69" t="str">
             <v>PL</v>
@@ -1742,13 +1765,13 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>投资收益</v>
+            <v>汇兑损益</v>
           </cell>
           <cell r="B70" t="str">
-            <v>投资收益（损失以“-”号填列）</v>
+            <v>汇兑收益（损失以“-”号填列）</v>
           </cell>
           <cell r="C70" t="str">
-            <v>投资收益</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D70" t="str">
             <v>PL</v>
@@ -1756,13 +1779,13 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>营业外收入</v>
+            <v>公允价值变动损益</v>
           </cell>
           <cell r="B71" t="str">
-            <v>营业外收入</v>
+            <v>公允价值变动收益（损失以“-”号填列）</v>
           </cell>
           <cell r="C71" t="str">
-            <v>加：营业外收入</v>
+            <v>公允价值变动收益</v>
           </cell>
           <cell r="D71" t="str">
             <v>PL</v>
@@ -1770,13 +1793,13 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>主营业务成本</v>
+            <v>投资收益</v>
           </cell>
           <cell r="B72" t="str">
-            <v>营业成本</v>
+            <v>投资收益（损失以“-”号填列）</v>
           </cell>
           <cell r="C72" t="str">
-            <v>其中：主营业务成本</v>
+            <v>投资收益</v>
           </cell>
           <cell r="D72" t="str">
             <v>PL</v>
@@ -1784,10 +1807,13 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>其他业务成本</v>
+            <v>营业外收入</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>营业外收入</v>
           </cell>
           <cell r="C73" t="str">
-            <v>其他业务支出</v>
+            <v>加：营业外收入</v>
           </cell>
           <cell r="D73" t="str">
             <v>PL</v>
@@ -1795,13 +1821,13 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>营业税金及附加</v>
+            <v>主营业务成本</v>
           </cell>
           <cell r="B74" t="str">
-            <v>营业税金及附加</v>
+            <v>营业成本</v>
           </cell>
           <cell r="C74" t="str">
-            <v>营业税金及附加</v>
+            <v>其中：主营业务成本</v>
           </cell>
           <cell r="D74" t="str">
             <v>PL</v>
@@ -1809,13 +1835,13 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>利息支出</v>
+            <v>其他业务成本</v>
           </cell>
           <cell r="B75" t="str">
-            <v>利息支出</v>
+            <v>营业成本</v>
           </cell>
           <cell r="C75" t="str">
-            <v>财务费用</v>
+            <v>其他业务支出</v>
           </cell>
           <cell r="D75" t="str">
             <v>PL</v>
@@ -1823,13 +1849,13 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>销售费用</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="B76" t="str">
-            <v>销售费用</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="C76" t="str">
-            <v>营业费用</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="D76" t="str">
             <v>PL</v>
@@ -1837,13 +1863,13 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>管理费用</v>
+            <v>利息支出</v>
           </cell>
           <cell r="B77" t="str">
-            <v>管理费用</v>
+            <v>利息支出</v>
           </cell>
           <cell r="C77" t="str">
-            <v>管理费用</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D77" t="str">
             <v>PL</v>
@@ -1851,13 +1877,13 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>财务费用</v>
+            <v>销售费用</v>
           </cell>
           <cell r="B78" t="str">
-            <v>财务费用</v>
+            <v>销售费用</v>
           </cell>
           <cell r="C78" t="str">
-            <v>财务费用</v>
+            <v>营业费用</v>
           </cell>
           <cell r="D78" t="str">
             <v>PL</v>
@@ -1865,13 +1891,13 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>资产减值损失</v>
+            <v>管理费用</v>
           </cell>
           <cell r="B79" t="str">
-            <v>资产减值损失</v>
+            <v>管理费用</v>
           </cell>
           <cell r="C79" t="str">
-            <v>资产减值损失</v>
+            <v>管理费用</v>
           </cell>
           <cell r="D79" t="str">
             <v>PL</v>
@@ -1879,13 +1905,13 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>营业外支出</v>
+            <v>研发费用</v>
           </cell>
           <cell r="B80" t="str">
-            <v>营业外支出</v>
+            <v>研发费用</v>
           </cell>
           <cell r="C80" t="str">
-            <v>减：营业外支出</v>
+            <v>研发费用</v>
           </cell>
           <cell r="D80" t="str">
             <v>PL</v>
@@ -1893,46 +1919,136 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>所得税费用</v>
+            <v>财务费用</v>
           </cell>
           <cell r="B81" t="str">
-            <v>所得税费用</v>
+            <v>财务费用</v>
           </cell>
           <cell r="C81" t="str">
-            <v>减：所得税</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D81" t="str">
             <v>PL</v>
           </cell>
         </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>资产减值损失</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>资产减值损失</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>资产减值损失</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>重复明细</v>
+            <v>营业外支出</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>营业外支出</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>减：营业外支出</v>
           </cell>
           <cell r="D83" t="str">
-            <v>BS</v>
+            <v>PL</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>本年利润抵消明细</v>
+            <v>所得税费用</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>所得税费用</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>减：所得税</v>
           </cell>
           <cell r="D84" t="str">
             <v>PL</v>
           </cell>
         </row>
-        <row r="85">
-          <cell r="A85" t="str">
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>重复明细</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>BS</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>本年利润</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>年初未分配利润（调整后）</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>年初未分配利润（调整后）</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>PV</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>年初未分配利润（调整后）</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>年初未分配利润（调整后）</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>PV</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
             <v>外币报表折算差额</v>
           </cell>
-          <cell r="B85" t="str">
+          <cell r="B89" t="str">
             <v>外币报表折算差额</v>
           </cell>
-          <cell r="C85" t="str">
+          <cell r="C89" t="str">
             <v>外币报表折算差额</v>
           </cell>
-          <cell r="D85" t="str">
+          <cell r="D89" t="str">
             <v>CV</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v xml:space="preserve">       加：其他收益</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v xml:space="preserve">       加：其他收益</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v xml:space="preserve">       加：其他收益</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>PL</v>
           </cell>
         </row>
       </sheetData>
@@ -1950,9 +2066,6 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>科目名称</v>
-          </cell>
           <cell r="B1" t="str">
             <v>科目编码</v>
           </cell>
@@ -1962,47 +2075,47 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>123102</v>
+            <v>123101/借</v>
           </cell>
           <cell r="C2" t="str">
-            <v>其他应收款坏账准备</v>
+            <v>应收账款坏账准备</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>600100</v>
+            <v>123101/贷</v>
           </cell>
           <cell r="C3" t="str">
-            <v>本年利润抵消明细</v>
+            <v>应收账款坏账准备</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>611100</v>
+            <v>123102/借</v>
           </cell>
           <cell r="C4" t="str">
-            <v>本年利润抵消明细</v>
+            <v>其他应收款坏账准备</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>640100</v>
+            <v>123102/贷</v>
           </cell>
           <cell r="C5" t="str">
-            <v>本年利润抵消明细</v>
+            <v>其他应收款坏账准备</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>640300</v>
+            <v>112202/贷</v>
           </cell>
           <cell r="C6" t="str">
-            <v>本年利润抵消明细</v>
+            <v>预付账款</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>660100</v>
+            <v>53010200/借</v>
           </cell>
           <cell r="C7" t="str">
             <v>本年利润抵消明细</v>
@@ -2010,7 +2123,7 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>660200</v>
+            <v>53010200/贷</v>
           </cell>
           <cell r="C8" t="str">
             <v>本年利润抵消明细</v>
@@ -2018,149 +2131,551 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>660300</v>
+            <v>600100/借</v>
           </cell>
           <cell r="C9" t="str">
             <v>本年利润抵消明细</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>600100/贷</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>9999</v>
+            <v>605100/借</v>
           </cell>
           <cell r="C11" t="str">
-            <v>外币报表折算差额</v>
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>605100/贷</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>122101</v>
+            <v>611100/借</v>
           </cell>
           <cell r="C13" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>122102</v>
+            <v>611100/贷</v>
           </cell>
           <cell r="C14" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>224101</v>
+            <v>605100/借</v>
           </cell>
           <cell r="C15" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>605100/贷</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>12210301</v>
+            <v>630100/借</v>
           </cell>
           <cell r="C17" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>12210401</v>
+            <v>630100/贷</v>
           </cell>
           <cell r="C18" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>12210402</v>
+            <v>630102/借</v>
           </cell>
           <cell r="C19" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>122105</v>
+            <v>630102/贷</v>
           </cell>
           <cell r="C20" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>122108</v>
+            <v>63019801/借</v>
           </cell>
           <cell r="C21" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>122125</v>
+            <v>63019801/贷</v>
           </cell>
           <cell r="C22" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>224102</v>
+            <v>640100/借</v>
           </cell>
           <cell r="C23" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>224103</v>
+            <v>640100/贷</v>
           </cell>
           <cell r="C24" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>224104</v>
+            <v>640200/借</v>
           </cell>
           <cell r="C25" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>224111</v>
+            <v>640200/贷</v>
           </cell>
           <cell r="C26" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>640300/借</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>12210302</v>
+            <v>640300/贷</v>
           </cell>
           <cell r="C28" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>660100/借</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>660100/贷</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>660200/借</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>660200/贷</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>660216/借</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>660216/贷</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>660300/借</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>660300/贷</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>671100/借</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>671100/贷</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>671102/借</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>671102/贷</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>680100/借</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>680100/贷</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>9999</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>外币报表折算差额</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>112201/贷</v>
+          </cell>
+          <cell r="C46" t="str">
             <v>重复明细</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="C30" t="str">
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>112201/借</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>122101/贷</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>122101/借</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>122102/贷</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>122102/借</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>12210301/贷</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>12210301/借</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>12210302/贷</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>12210302/借</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>12210401/贷</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>12210401/借</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>12210402/贷</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>12210402/借</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>122105/贷</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>122105/借</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>122108/贷</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>122108/借</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>122125/贷</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>122125/借</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>224101/贷</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>224101/借</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>224102/贷</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>224102/借</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>224103/贷</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>224103/借</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>224104/贷</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>224104/借</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>224111/贷</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>224111/借</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86" t="str">
+            <v>应收账款</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87" t="str">
+            <v>预收账款</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88" t="str">
             <v>其他应收款</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="C31" t="str">
+        <row r="89">
+          <cell r="C89" t="str">
             <v>其他应付款</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="C32" t="str">
+        <row r="90">
+          <cell r="C90" t="str">
             <v>其他应收款</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="C33" t="str">
+        <row r="91">
+          <cell r="C91" t="str">
             <v>其他应付款</v>
           </cell>
         </row>
@@ -2439,7 +2954,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22:E22"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2795,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
@@ -2817,7 +3332,7 @@
       </c>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>=TRIM(RC2)</v>
+        <v>=TRIM(RC2)&amp;"/"&amp;RC16</v>
       </c>
       <c r="W5" t="e">
         <f t="shared" si="1"/>
@@ -4512,7 +5027,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>30</v>
@@ -4725,7 +5240,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4980,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
@@ -5081,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
@@ -5103,7 +5618,7 @@
       </c>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>=TRIM(LEFT(RC2,RC[9]-1))</v>
+        <v>=TRIM(LEFT(RC2,RC[9]-1))&amp;"/"&amp;RC16</v>
       </c>
       <c r="W5" t="e">
         <f t="shared" si="1"/>
@@ -5182,13 +5697,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -5289,7 +5804,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5390,7 +5905,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5485,7 +6000,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
@@ -5687,7 +6202,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
@@ -5788,7 +6303,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -5889,7 +6404,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -5987,16 +6502,16 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6088,10 +6603,10 @@
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -6299,7 +6814,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6501,7 +7016,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -6694,10 +7209,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>30</v>
@@ -6795,10 +7310,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>30</v>
@@ -6896,10 +7411,10 @@
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
@@ -6937,10 +7452,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>30</v>
@@ -6978,10 +7493,10 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>30</v>

--- a/00框架文件/04Formula.xlsx
+++ b/00框架文件/04Formula.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8287A9E5-CBCD-41F8-983E-463ACFDB282A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB6DF8F-C592-4560-97BD-27E2A62AAA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
     <sheet name="ATB" sheetId="2" r:id="rId2"/>
+    <sheet name="CombinedTB" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
   <si>
     <t>处理列数</t>
   </si>
@@ -375,6 +376,27 @@
   </si>
   <si>
     <t>=TRIM(RC2)&amp;"/"&amp;RC16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表借正贷负</t>
+  </si>
+  <si>
+    <t>TB原币借正贷负</t>
+  </si>
+  <si>
+    <t>差异金额</t>
+  </si>
+  <si>
+    <t>=SUMIFS(CombinedTB!C[2],CombinedTB!C[-4],FScheck!RC[-4],CombinedTB!C[-1],FScheck!RC[-3])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=RC[-3]*RC[-2]-RC[-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=VLOOKUP(RC[-2],[%s]%s!C2:C5,4,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,6 +831,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="科目"/>
+      <sheetName val="报表筛选"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -831,7 +854,7 @@
             <v>库存现金</v>
           </cell>
           <cell r="B2" t="str">
-            <v>货币资金</v>
+            <v xml:space="preserve">    货币资金</v>
           </cell>
           <cell r="C2" t="str">
             <v>货币资金</v>
@@ -845,7 +868,7 @@
             <v>银行存款</v>
           </cell>
           <cell r="B3" t="str">
-            <v>货币资金</v>
+            <v xml:space="preserve">    货币资金</v>
           </cell>
           <cell r="C3" t="str">
             <v>货币资金</v>
@@ -859,7 +882,7 @@
             <v>其他货币资金</v>
           </cell>
           <cell r="B4" t="str">
-            <v>货币资金</v>
+            <v xml:space="preserve">    货币资金</v>
           </cell>
           <cell r="C4" t="str">
             <v>货币资金</v>
@@ -873,7 +896,7 @@
             <v>交易性金融资产</v>
           </cell>
           <cell r="B5" t="str">
-            <v>交易性金融资产</v>
+            <v xml:space="preserve">    交易性金融资产</v>
           </cell>
           <cell r="C5" t="str">
             <v>交易性金融资产</v>
@@ -887,7 +910,7 @@
             <v>应收票据</v>
           </cell>
           <cell r="B6" t="str">
-            <v>应收票据</v>
+            <v xml:space="preserve">    应收票据</v>
           </cell>
           <cell r="C6" t="str">
             <v>应收票据</v>
@@ -901,7 +924,7 @@
             <v>应收账款</v>
           </cell>
           <cell r="B7" t="str">
-            <v>应收账款</v>
+            <v xml:space="preserve">    应收账款</v>
           </cell>
           <cell r="C7" t="str">
             <v>应收账款</v>
@@ -915,7 +938,7 @@
             <v>应收账款坏账准备</v>
           </cell>
           <cell r="B8" t="str">
-            <v>应收账款</v>
+            <v xml:space="preserve">    应收账款</v>
           </cell>
           <cell r="C8" t="str">
             <v>应收账款</v>
@@ -929,7 +952,7 @@
             <v>预付账款</v>
           </cell>
           <cell r="B9" t="str">
-            <v>预付款项</v>
+            <v xml:space="preserve">    预付款项</v>
           </cell>
           <cell r="C9" t="str">
             <v>预付款项</v>
@@ -942,6 +965,9 @@
           <cell r="A10" t="str">
             <v>应收股利</v>
           </cell>
+          <cell r="B10" t="str">
+            <v xml:space="preserve">    其他应收款</v>
+          </cell>
           <cell r="C10" t="str">
             <v>应收股利</v>
           </cell>
@@ -954,7 +980,7 @@
             <v>应收利息</v>
           </cell>
           <cell r="B11" t="str">
-            <v>应收利息</v>
+            <v xml:space="preserve">    其他应收款</v>
           </cell>
           <cell r="C11" t="str">
             <v>应收利息</v>
@@ -968,7 +994,7 @@
             <v>其他应收款</v>
           </cell>
           <cell r="B12" t="str">
-            <v>其他应收款</v>
+            <v xml:space="preserve">    其他应收款</v>
           </cell>
           <cell r="C12" t="str">
             <v>其他应收款</v>
@@ -982,7 +1008,7 @@
             <v>其他应收款坏账准备</v>
           </cell>
           <cell r="B13" t="str">
-            <v>其他应收款</v>
+            <v xml:space="preserve">    其他应收款</v>
           </cell>
           <cell r="C13" t="str">
             <v>其他应收款</v>
@@ -996,7 +1022,7 @@
             <v>材料采购</v>
           </cell>
           <cell r="B14" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C14" t="str">
             <v>存货</v>
@@ -1010,7 +1036,7 @@
             <v>在途物资</v>
           </cell>
           <cell r="B15" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C15" t="str">
             <v>存货</v>
@@ -1024,7 +1050,7 @@
             <v>原材料</v>
           </cell>
           <cell r="B16" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C16" t="str">
             <v>存货</v>
@@ -1038,7 +1064,7 @@
             <v>半成品</v>
           </cell>
           <cell r="B17" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C17" t="str">
             <v>存货</v>
@@ -1052,7 +1078,7 @@
             <v>材料成本差异</v>
           </cell>
           <cell r="B18" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C18" t="str">
             <v>存货</v>
@@ -1066,7 +1092,7 @@
             <v>库存商品</v>
           </cell>
           <cell r="B19" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C19" t="str">
             <v>存货</v>
@@ -1080,7 +1106,7 @@
             <v>发出商品</v>
           </cell>
           <cell r="B20" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C20" t="str">
             <v>存货</v>
@@ -1094,7 +1120,7 @@
             <v>商品进销差价</v>
           </cell>
           <cell r="B21" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C21" t="str">
             <v>存货</v>
@@ -1108,7 +1134,7 @@
             <v>委托加工物资</v>
           </cell>
           <cell r="B22" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C22" t="str">
             <v>存货</v>
@@ -1122,7 +1148,7 @@
             <v>周转材料</v>
           </cell>
           <cell r="B23" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C23" t="str">
             <v>存货</v>
@@ -1136,7 +1162,7 @@
             <v>存货跌价准备</v>
           </cell>
           <cell r="B24" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C24" t="str">
             <v>存货减值准备</v>
@@ -1178,7 +1204,7 @@
             <v>可供出售金融资产</v>
           </cell>
           <cell r="B27" t="str">
-            <v>其他权益工具投资</v>
+            <v xml:space="preserve">    其他权益工具投资</v>
           </cell>
           <cell r="C27" t="str">
             <v>其他权益工具投资</v>
@@ -1192,7 +1218,7 @@
             <v>长期股权投资</v>
           </cell>
           <cell r="B28" t="str">
-            <v>长期股权投资</v>
+            <v xml:space="preserve">    长期股权投资</v>
           </cell>
           <cell r="C28" t="str">
             <v>长期股权投资</v>
@@ -1206,7 +1232,7 @@
             <v>长期股权投资减值准备</v>
           </cell>
           <cell r="B29" t="str">
-            <v>长期股权投资</v>
+            <v xml:space="preserve">    长期股权投资</v>
           </cell>
           <cell r="C29" t="str">
             <v>长期股权投资</v>
@@ -1220,7 +1246,7 @@
             <v>长期投资减值准备</v>
           </cell>
           <cell r="B30" t="str">
-            <v>长期股权投资</v>
+            <v xml:space="preserve">    长期股权投资</v>
           </cell>
           <cell r="C30" t="str">
             <v>长期股权投资</v>
@@ -1234,7 +1260,7 @@
             <v>长期应收款</v>
           </cell>
           <cell r="B31" t="str">
-            <v>长期应收款</v>
+            <v xml:space="preserve">    长期应收款</v>
           </cell>
           <cell r="C31" t="str">
             <v>长期应收款</v>
@@ -1248,7 +1274,7 @@
             <v>使用权资产</v>
           </cell>
           <cell r="B32" t="str">
-            <v>使用权资产</v>
+            <v xml:space="preserve">    使用权资产</v>
           </cell>
           <cell r="C32" t="str">
             <v>使用权资产</v>
@@ -1262,7 +1288,7 @@
             <v>固定资产</v>
           </cell>
           <cell r="B33" t="str">
-            <v>固定资产</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C33" t="str">
             <v>固定资产原价</v>
@@ -1276,7 +1302,7 @@
             <v>累计折旧</v>
           </cell>
           <cell r="B34" t="str">
-            <v>固定资产</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C34" t="str">
             <v>减：累计折旧</v>
@@ -1290,7 +1316,7 @@
             <v>固定资产减值准备</v>
           </cell>
           <cell r="B35" t="str">
-            <v>固定资产</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C35" t="str">
             <v>固定资产</v>
@@ -1304,7 +1330,7 @@
             <v>在建工程</v>
           </cell>
           <cell r="B36" t="str">
-            <v>在建工程</v>
+            <v xml:space="preserve">    在建工程</v>
           </cell>
           <cell r="C36" t="str">
             <v>在建工程</v>
@@ -1346,7 +1372,7 @@
             <v>无形资产</v>
           </cell>
           <cell r="B39" t="str">
-            <v>无形资产</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C39" t="str">
             <v>无形资产</v>
@@ -1360,7 +1386,7 @@
             <v>累计摊销</v>
           </cell>
           <cell r="B40" t="str">
-            <v>无形资产</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C40" t="str">
             <v>无形资产</v>
@@ -1374,7 +1400,7 @@
             <v>无形资产减值准备</v>
           </cell>
           <cell r="B41" t="str">
-            <v>无形资产</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C41" t="str">
             <v>无形资产</v>
@@ -1388,7 +1414,7 @@
             <v>商誉</v>
           </cell>
           <cell r="B42" t="str">
-            <v>商誉</v>
+            <v xml:space="preserve">    商誉</v>
           </cell>
           <cell r="C42" t="str">
             <v>商誉</v>
@@ -1402,7 +1428,7 @@
             <v>长期待摊费用</v>
           </cell>
           <cell r="B43" t="str">
-            <v>长期待摊费用</v>
+            <v xml:space="preserve">    长期待摊费用</v>
           </cell>
           <cell r="C43" t="str">
             <v>长期待摊费用</v>
@@ -1416,7 +1442,7 @@
             <v>递延所得税资产</v>
           </cell>
           <cell r="B44" t="str">
-            <v>递延所得税资产</v>
+            <v xml:space="preserve">    递延所得税资产</v>
           </cell>
           <cell r="C44" t="str">
             <v>递延所得税资产</v>
@@ -1430,7 +1456,7 @@
             <v>短期借款</v>
           </cell>
           <cell r="B45" t="str">
-            <v>短期借款</v>
+            <v xml:space="preserve">    短期借款</v>
           </cell>
           <cell r="C45" t="str">
             <v>短期借款</v>
@@ -1444,7 +1470,7 @@
             <v>应付票据</v>
           </cell>
           <cell r="B46" t="str">
-            <v>应付票据</v>
+            <v xml:space="preserve">    应付票据</v>
           </cell>
           <cell r="C46" t="str">
             <v>应付票据</v>
@@ -1458,7 +1484,7 @@
             <v>应付账款</v>
           </cell>
           <cell r="B47" t="str">
-            <v>应付账款</v>
+            <v xml:space="preserve">    应付账款</v>
           </cell>
           <cell r="C47" t="str">
             <v>应付账款</v>
@@ -1472,7 +1498,7 @@
             <v>预收账款</v>
           </cell>
           <cell r="B48" t="str">
-            <v>预收款项</v>
+            <v xml:space="preserve">    预收款项</v>
           </cell>
           <cell r="C48" t="str">
             <v>预收款项</v>
@@ -1486,7 +1512,7 @@
             <v>应付职工薪酬</v>
           </cell>
           <cell r="B49" t="str">
-            <v>应付职工薪酬</v>
+            <v xml:space="preserve">    应付职工薪酬</v>
           </cell>
           <cell r="C49" t="str">
             <v>应付职工薪酬</v>
@@ -1500,7 +1526,7 @@
             <v>应交税费</v>
           </cell>
           <cell r="B50" t="str">
-            <v>应交税费</v>
+            <v xml:space="preserve">    应交税费</v>
           </cell>
           <cell r="C50" t="str">
             <v>应交税费</v>
@@ -1514,7 +1540,7 @@
             <v>应付利息</v>
           </cell>
           <cell r="B51" t="str">
-            <v>应付利息</v>
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C51" t="str">
             <v>应付利息</v>
@@ -1527,6 +1553,9 @@
           <cell r="A52" t="str">
             <v>应付股利</v>
           </cell>
+          <cell r="B52" t="str">
+            <v xml:space="preserve">    其他应付款</v>
+          </cell>
           <cell r="C52" t="str">
             <v>应付股利</v>
           </cell>
@@ -1539,7 +1568,7 @@
             <v>其他应付款</v>
           </cell>
           <cell r="B53" t="str">
-            <v>其他应付款</v>
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C53" t="str">
             <v>其他应付款</v>
@@ -1564,7 +1593,7 @@
             <v>租赁负债</v>
           </cell>
           <cell r="B55" t="str">
-            <v>租赁负债</v>
+            <v xml:space="preserve">    租赁负债</v>
           </cell>
           <cell r="C55" t="str">
             <v>租赁负债</v>
@@ -1578,7 +1607,7 @@
             <v>长期借款</v>
           </cell>
           <cell r="B56" t="str">
-            <v>长期借款</v>
+            <v xml:space="preserve">    长期借款</v>
           </cell>
           <cell r="C56" t="str">
             <v>长期借款</v>
@@ -1592,7 +1621,7 @@
             <v>长期应付款</v>
           </cell>
           <cell r="B57" t="str">
-            <v>长期应付款</v>
+            <v xml:space="preserve">    长期应付款</v>
           </cell>
           <cell r="C57" t="str">
             <v>长期应付款</v>
@@ -1606,7 +1635,7 @@
             <v>预计负债</v>
           </cell>
           <cell r="B58" t="str">
-            <v>预计负债</v>
+            <v xml:space="preserve">    预计负债</v>
           </cell>
           <cell r="C58" t="str">
             <v>预计负债</v>
@@ -1620,7 +1649,7 @@
             <v>递延所得税负债</v>
           </cell>
           <cell r="B59" t="str">
-            <v>递延所得税负债</v>
+            <v xml:space="preserve">    递延所得税负债</v>
           </cell>
           <cell r="C59" t="str">
             <v>递延所得税负债</v>
@@ -1634,7 +1663,7 @@
             <v>实收资本</v>
           </cell>
           <cell r="B60" t="str">
-            <v>实收资本（或股本）</v>
+            <v xml:space="preserve">    实收资本(或股本)</v>
           </cell>
           <cell r="C60" t="str">
             <v>实收资本</v>
@@ -1648,7 +1677,7 @@
             <v>资本公积</v>
           </cell>
           <cell r="B61" t="str">
-            <v>资本公积</v>
+            <v xml:space="preserve">    资本公积</v>
           </cell>
           <cell r="C61" t="str">
             <v>资本公积</v>
@@ -1662,7 +1691,7 @@
             <v>盈余公积</v>
           </cell>
           <cell r="B62" t="str">
-            <v>盈余公积</v>
+            <v xml:space="preserve">    盈余公积</v>
           </cell>
           <cell r="C62" t="str">
             <v>盈余公积</v>
@@ -1676,7 +1705,7 @@
             <v>利润分配</v>
           </cell>
           <cell r="B63" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C63" t="str">
             <v>年初未分配利润（调整后）</v>
@@ -1690,7 +1719,7 @@
             <v>库存股</v>
           </cell>
           <cell r="B64" t="str">
-            <v>减：库存股</v>
+            <v xml:space="preserve">       减:库存股</v>
           </cell>
           <cell r="C64" t="str">
             <v>减：库存股</v>
@@ -1704,7 +1733,7 @@
             <v>其他综合收益</v>
           </cell>
           <cell r="B65" t="str">
-            <v>其他综合收益</v>
+            <v xml:space="preserve">    其他综合收益</v>
           </cell>
           <cell r="C65" t="str">
             <v>其他综合收益</v>
@@ -1715,7 +1744,13 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>研发支出</v>
+            <v>主营业务收入</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>一、营业收入</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>主营业务收入</v>
           </cell>
           <cell r="D66" t="str">
             <v>PL</v>
@@ -1723,13 +1758,13 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>主营业务收入</v>
+            <v>利息收入</v>
           </cell>
           <cell r="B67" t="str">
-            <v>营业收入</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C67" t="str">
-            <v>主营业务收入</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D67" t="str">
             <v>PL</v>
@@ -1737,13 +1772,13 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>利息收入</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="B68" t="str">
-            <v>利息收入</v>
+            <v>一、营业收入</v>
           </cell>
           <cell r="C68" t="str">
-            <v>财务费用</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="D68" t="str">
             <v>PL</v>
@@ -1751,13 +1786,13 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>其他业务收入</v>
+            <v>汇兑损益</v>
           </cell>
           <cell r="B69" t="str">
-            <v>营业收入</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C69" t="str">
-            <v>其他业务收入</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D69" t="str">
             <v>PL</v>
@@ -1765,13 +1800,13 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>汇兑损益</v>
+            <v>公允价值变动损益</v>
           </cell>
           <cell r="B70" t="str">
-            <v>汇兑收益（损失以“-”号填列）</v>
+            <v xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C70" t="str">
-            <v>财务费用</v>
+            <v>公允价值变动收益</v>
           </cell>
           <cell r="D70" t="str">
             <v>PL</v>
@@ -1779,13 +1814,13 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>公允价值变动损益</v>
+            <v>投资收益</v>
           </cell>
           <cell r="B71" t="str">
-            <v>公允价值变动收益（损失以“-”号填列）</v>
+            <v xml:space="preserve">         投资收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C71" t="str">
-            <v>公允价值变动收益</v>
+            <v>投资收益</v>
           </cell>
           <cell r="D71" t="str">
             <v>PL</v>
@@ -1793,13 +1828,13 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>投资收益</v>
+            <v>营业外收入</v>
           </cell>
           <cell r="B72" t="str">
-            <v>投资收益（损失以“-”号填列）</v>
+            <v xml:space="preserve">    加: 营业外收入</v>
           </cell>
           <cell r="C72" t="str">
-            <v>投资收益</v>
+            <v>加：营业外收入</v>
           </cell>
           <cell r="D72" t="str">
             <v>PL</v>
@@ -1807,13 +1842,13 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>营业外收入</v>
+            <v>主营业务成本</v>
           </cell>
           <cell r="B73" t="str">
-            <v>营业外收入</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C73" t="str">
-            <v>加：营业外收入</v>
+            <v>其中：主营业务成本</v>
           </cell>
           <cell r="D73" t="str">
             <v>PL</v>
@@ -1821,13 +1856,13 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>主营业务成本</v>
+            <v>其他业务成本</v>
           </cell>
           <cell r="B74" t="str">
-            <v>营业成本</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C74" t="str">
-            <v>其中：主营业务成本</v>
+            <v>其他业务支出</v>
           </cell>
           <cell r="D74" t="str">
             <v>PL</v>
@@ -1835,13 +1870,13 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>其他业务成本</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="B75" t="str">
-            <v>营业成本</v>
+            <v xml:space="preserve">        税金及附加</v>
           </cell>
           <cell r="C75" t="str">
-            <v>其他业务支出</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="D75" t="str">
             <v>PL</v>
@@ -1849,13 +1884,13 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>营业税金及附加</v>
+            <v>利息支出</v>
           </cell>
           <cell r="B76" t="str">
-            <v>营业税金及附加</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C76" t="str">
-            <v>营业税金及附加</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D76" t="str">
             <v>PL</v>
@@ -1863,13 +1898,13 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>利息支出</v>
+            <v>销售费用</v>
           </cell>
           <cell r="B77" t="str">
-            <v>利息支出</v>
+            <v xml:space="preserve">        销售费用</v>
           </cell>
           <cell r="C77" t="str">
-            <v>财务费用</v>
+            <v>营业费用</v>
           </cell>
           <cell r="D77" t="str">
             <v>PL</v>
@@ -1877,13 +1912,13 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>销售费用</v>
+            <v>管理费用</v>
           </cell>
           <cell r="B78" t="str">
-            <v>销售费用</v>
+            <v xml:space="preserve">        管理费用</v>
           </cell>
           <cell r="C78" t="str">
-            <v>营业费用</v>
+            <v>管理费用</v>
           </cell>
           <cell r="D78" t="str">
             <v>PL</v>
@@ -1891,13 +1926,13 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>管理费用</v>
+            <v>研发费用</v>
           </cell>
           <cell r="B79" t="str">
-            <v>管理费用</v>
+            <v xml:space="preserve">        研发费用</v>
           </cell>
           <cell r="C79" t="str">
-            <v>管理费用</v>
+            <v>研发费用</v>
           </cell>
           <cell r="D79" t="str">
             <v>PL</v>
@@ -1905,13 +1940,13 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>研发费用</v>
+            <v>财务费用</v>
           </cell>
           <cell r="B80" t="str">
-            <v>研发费用</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C80" t="str">
-            <v>研发费用</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D80" t="str">
             <v>PL</v>
@@ -1919,13 +1954,13 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>财务费用</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="B81" t="str">
-            <v>财务费用</v>
+            <v xml:space="preserve">   资产减值损失（损失以“－”号填列）</v>
           </cell>
           <cell r="C81" t="str">
-            <v>财务费用</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="D81" t="str">
             <v>PL</v>
@@ -1933,13 +1968,13 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>资产减值损失</v>
+            <v>营业外支出</v>
           </cell>
           <cell r="B82" t="str">
-            <v>资产减值损失</v>
+            <v xml:space="preserve">    减：营业外支出</v>
           </cell>
           <cell r="C82" t="str">
-            <v>资产减值损失</v>
+            <v>减：营业外支出</v>
           </cell>
           <cell r="D82" t="str">
             <v>PL</v>
@@ -1947,46 +1982,46 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>营业外支出</v>
+            <v>所得税费用</v>
           </cell>
           <cell r="B83" t="str">
-            <v>营业外支出</v>
+            <v xml:space="preserve">    减：所得税费用</v>
           </cell>
           <cell r="C83" t="str">
-            <v>减：营业外支出</v>
+            <v>减：所得税</v>
           </cell>
           <cell r="D83" t="str">
             <v>PL</v>
           </cell>
         </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>所得税费用</v>
-          </cell>
-          <cell r="B84" t="str">
-            <v>所得税费用</v>
-          </cell>
-          <cell r="C84" t="str">
-            <v>减：所得税</v>
-          </cell>
-          <cell r="D84" t="str">
-            <v>PL</v>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>重复明细</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>BS</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>重复明细</v>
+            <v>本年利润</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v xml:space="preserve">    未分配利润</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>年初未分配利润（调整后）</v>
           </cell>
           <cell r="D86" t="str">
-            <v>BS</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>本年利润</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="B87" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="C87" t="str">
             <v>年初未分配利润（调整后）</v>
@@ -1997,61 +2032,48 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>本年利润抵消明细</v>
+            <v>外币报表折算差额</v>
           </cell>
           <cell r="B88" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v>外币报表折算差额</v>
           </cell>
           <cell r="C88" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v>外币报表折算差额</v>
           </cell>
           <cell r="D88" t="str">
-            <v>PV</v>
+            <v>CV</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>外币报表折算差额</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
           <cell r="B89" t="str">
-            <v>外币报表折算差额</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
           <cell r="C89" t="str">
-            <v>外币报表折算差额</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
           <cell r="D89" t="str">
-            <v>CV</v>
+            <v>PL</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
           </cell>
           <cell r="B90" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C90" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
           </cell>
           <cell r="D90" t="str">
             <v>PL</v>
           </cell>
         </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="B91" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="D91" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5236,7 +5258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441FA250-AE24-4D9C-8E7A-9FF2C1FF3B97}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -7594,4 +7616,914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20141F65-1A85-4B98-84F9-1C603928B969}">
+  <dimension ref="A1:AO29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="4" max="5" width="31.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>COUNTA(A4:A29)</f>
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="U2" t="e">
+        <f>VLOOKUP($A2,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2:V25" si="0">TRIM($C2)</f>
+        <v/>
+      </c>
+      <c r="W2" t="e">
+        <f t="shared" ref="W2:W22" si="1">_xlfn.IFNA(AE2,AH2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X2" t="e">
+        <f>VLOOKUP(W2,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y2" t="e">
+        <f>VLOOKUP(W2,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z2" t="e">
+        <f t="shared" ref="Z2:Z22" si="2">U2&amp;"\"&amp;$C2</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AA22" si="3">IF($P2="借",$R2,-$R2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" t="e">
+        <f t="shared" ref="AB2:AB22" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" t="e">
+        <f>VLOOKUP(V2,[3]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF2" t="e">
+        <f t="shared" ref="AF2:AF25" si="5">FIND("\",$C2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" ref="AG2:AG25" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="e">
+        <f t="shared" ref="AH2:AH25" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI2" t="e">
+        <f>VLOOKUP(U2,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ2" t="e">
+        <f>VLOOKUP(W2,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK2" t="e">
+        <f t="shared" ref="AK2:AK22" si="8">AI2&amp;"/"&amp;AJ2</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL2" t="e">
+        <f>VLOOKUP(AK2,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM2" t="e">
+        <f t="shared" ref="AM2:AM22" si="9">ROUND(AA2*AL2,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN2" t="e">
+        <f>VLOOKUP(Z2,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO2" t="e">
+        <f t="shared" ref="AO2:AO22" si="10">_xlfn.IFNA(AM2,AN2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="e">
+        <f>VLOOKUP($A3,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="0"/>
+        <v>列公式</v>
+      </c>
+      <c r="W3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X3" t="e">
+        <f>VLOOKUP(W3,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y3" t="e">
+        <f>VLOOKUP(W3,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE3" t="e">
+        <f>VLOOKUP(V3,[3]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF3" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI3" t="e">
+        <f>VLOOKUP(U3,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ3" t="e">
+        <f>VLOOKUP(W3,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK3" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL3" t="e">
+        <f>VLOOKUP(AK3,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM3" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN3" t="e">
+        <f>VLOOKUP(Z3,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO3" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="U4" t="e">
+        <f>VLOOKUP($A4,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="0"/>
+        <v>=VLOOKUP(RC[-2],[%s]%s!C2:C5,4,0)</v>
+      </c>
+      <c r="W4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X4" t="e">
+        <f>VLOOKUP(W4,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y4" t="e">
+        <f>VLOOKUP(W4,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE4" t="e">
+        <f>VLOOKUP(V4,[3]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF4" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI4" t="e">
+        <f>VLOOKUP(U4,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ4" t="e">
+        <f>VLOOKUP(W4,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK4" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL4" t="e">
+        <f>VLOOKUP(AK4,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN4" t="e">
+        <f>VLOOKUP(Z4,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO4" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="U5" t="e">
+        <f>VLOOKUP($A5,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="0"/>
+        <v>=SUMIFS(CombinedTB!C[2],CombinedTB!C[-4],FScheck!RC[-4],CombinedTB!C[-1],FScheck!RC[-3])</v>
+      </c>
+      <c r="W5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" t="e">
+        <f>VLOOKUP(W5,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y5" t="e">
+        <f>VLOOKUP(W5,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE5" t="e">
+        <f>VLOOKUP(V5,[3]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF5" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI5" t="e">
+        <f>VLOOKUP(U5,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ5" t="e">
+        <f>VLOOKUP(W5,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK5" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL5" t="e">
+        <f>VLOOKUP(AK5,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM5" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN5" t="e">
+        <f>VLOOKUP(Z5,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO5" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="U6" t="e">
+        <f>VLOOKUP($A6,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="0"/>
+        <v>=RC[-3]*RC[-2]-RC[-1]</v>
+      </c>
+      <c r="W6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X6" t="e">
+        <f>VLOOKUP(W6,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y6" t="e">
+        <f>VLOOKUP(W6,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE6" t="e">
+        <f>VLOOKUP(V6,[3]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI6" t="e">
+        <f>VLOOKUP(U6,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ6" t="e">
+        <f>VLOOKUP(W6,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK6" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL6" t="e">
+        <f>VLOOKUP(AK6,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM6" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN6" t="e">
+        <f>VLOOKUP(Z6,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO6" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/00框架文件/04Formula.xlsx
+++ b/00框架文件/04Formula.xlsx
@@ -3,20 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB6DF8F-C592-4560-97BD-27E2A62AAA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D3547D-7CB1-4771-8D19-523755FFEFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
     <sheet name="ATB" sheetId="2" r:id="rId2"/>
     <sheet name="CombinedTB" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="107">
   <si>
     <t>处理列数</t>
   </si>
@@ -375,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=TRIM(RC2)&amp;"/"&amp;RC16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报表借正贷负</t>
   </si>
   <si>
@@ -397,6 +388,31 @@
   </si>
   <si>
     <t>=VLOOKUP(RC[-2],[%s]%s!C2:C5,4,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=IF(RC[20]="224105",RC[20]&amp;"/"&amp;RC[22],TRIM(RC2)&amp;"/"&amp;RC16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6位编码</t>
+  </si>
+  <si>
+    <t>6位编码合计数</t>
+  </si>
+  <si>
+    <t>6位借贷</t>
+  </si>
+  <si>
+    <t>=LEFT(RC2,6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=SUMIF(C[-1],RC[-1],C27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=IF(RC[-1]&gt;0,"借","贷")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,2234 +493,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Basic"/>
-      <sheetName val="FX"/>
-      <sheetName val="History"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>主体账簿名</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>公司简称</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>本位币</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>上海昊海生物科技股份有限公司-基准账簿</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>01 生科</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>上海其胜生物制剂有限公司-基准账簿</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>02 其胜</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>上海建华精细生物制品有限公司-基准账簿</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>03 建华</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>上海利康瑞生物工程有限公司-基准账簿</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>04 利康瑞</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>昊海生物科技控股有限公司(港币)-港币账簿</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>05 控股(HK)</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>HKD</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>上海昊海医药科技发展有限公司-基准账簿</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>06 发展</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>08 BVI</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>GBP</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>09 Aaren</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>深圳市新产业眼科新技术有限公司-基准账簿</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>10 新产业</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>河南宇宙人工晶状体研制有限公司-基准账簿</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>11 河南宇宙</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>12 珠海艾格</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>13 Contamac</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>GBP</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>14 海洋集团</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>15 青岛华元</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>16 太平洋生物</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>17 太平洋药业</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>河南赛美视生物科技有限公司-基准账簿</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>18 河南赛美视</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>杭州爱晶伦科技有限公司-基准账簿</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>19 爱晶伦</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>20 艾格视光</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>河北鑫视康隐形眼镜有限公司-基准账簿</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>21 河北鑫视康</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>上海亨泰视觉科技有限公司-基准账簿</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>22 亨泰视觉</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>汇率标签</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>适用汇率</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2" t="str">
-            <v>RMB/BS</v>
-          </cell>
-          <cell r="G2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3" t="str">
-            <v>USD/BS</v>
-          </cell>
-          <cell r="G3">
-            <v>6.4600999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>HKD/BS</v>
-          </cell>
-          <cell r="G4">
-            <v>0.83208000000000004</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>GBP/BS</v>
-          </cell>
-          <cell r="G5">
-            <v>8.9410000000000007</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9" t="str">
-            <v>RMB/PL</v>
-          </cell>
-          <cell r="G9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10" t="str">
-            <v>USD/PL</v>
-          </cell>
-          <cell r="G10">
-            <v>6.4924999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11" t="str">
-            <v>HKD/PL</v>
-          </cell>
-          <cell r="G11">
-            <v>0.83686000000000005</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12" t="str">
-            <v>GBP/PL</v>
-          </cell>
-          <cell r="G12">
-            <v>8.9156499999999994</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14" t="str">
-            <v>RMB/PV</v>
-          </cell>
-          <cell r="G14">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>唯一识别码</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>05 控股(HK)\40010201\实收资本\法人资本\上海昊海生物科技股份有限公司</v>
-          </cell>
-          <cell r="B2">
-            <v>-130393141.33</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>05 控股(HK)\4003\其他综合收益</v>
-          </cell>
-          <cell r="B3">
-            <v>-52328140.099999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>05 控股(HK)\410498\利润分配\未分配利润</v>
-          </cell>
-          <cell r="B4">
-            <v>-240730882.72279382</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="科目"/>
-      <sheetName val="报表筛选"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>主科目名称</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>报表科目名称</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>A3科目名称</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>表标签</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>库存现金</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v xml:space="preserve">    货币资金</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>货币资金</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>银行存款</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v xml:space="preserve">    货币资金</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>货币资金</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>其他货币资金</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v xml:space="preserve">    货币资金</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>货币资金</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>交易性金融资产</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v xml:space="preserve">    交易性金融资产</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>交易性金融资产</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>应收票据</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v xml:space="preserve">    应收票据</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>应收票据</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>应收账款</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v xml:space="preserve">    应收账款</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>应收账款</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>应收账款坏账准备</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v xml:space="preserve">    应收账款</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>应收账款</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>预付账款</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v xml:space="preserve">    预付款项</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>预付款项</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>应收股利</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v xml:space="preserve">    其他应收款</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>应收股利</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>应收利息</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v xml:space="preserve">    其他应收款</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>应收利息</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>其他应收款</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v xml:space="preserve">    其他应收款</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>其他应收款</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>其他应收款坏账准备</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v xml:space="preserve">    其他应收款</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>其他应收款</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>材料采购</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>在途物资</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>原材料</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>半成品</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>材料成本差异</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>库存商品</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>发出商品</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>商品进销差价</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>委托加工物资</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>周转材料</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>存货</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>存货跌价准备</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v xml:space="preserve">    存货</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>存货减值准备</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>持有至到期投资</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>持有至到期投资</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>持有至到期投资</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>持有至到期投资减值准备</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>持有至到期投资</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>持有至到期投资</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>可供出售金融资产</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v xml:space="preserve">    其他权益工具投资</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>其他权益工具投资</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>长期股权投资</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v xml:space="preserve">    长期股权投资</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>长期股权投资</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>长期股权投资减值准备</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v xml:space="preserve">    长期股权投资</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>长期股权投资</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>长期投资减值准备</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v xml:space="preserve">    长期股权投资</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>长期股权投资</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>长期应收款</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v xml:space="preserve">    长期应收款</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>长期应收款</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>使用权资产</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v xml:space="preserve">    使用权资产</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>使用权资产</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>固定资产</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v xml:space="preserve">    固定资产</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>固定资产原价</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>累计折旧</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v xml:space="preserve">    固定资产</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>减：累计折旧</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>固定资产减值准备</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v xml:space="preserve">    固定资产</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>固定资产</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>在建工程</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v xml:space="preserve">    在建工程</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>在建工程</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>工程物资</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>工程物资</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>工程物资</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>固定资产清理</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>固定资产清理</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>固定资产清理</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>无形资产</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v xml:space="preserve">    无形资产</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>无形资产</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>累计摊销</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v xml:space="preserve">    无形资产</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>无形资产</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>无形资产减值准备</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v xml:space="preserve">    无形资产</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>无形资产</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>商誉</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v xml:space="preserve">    商誉</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>商誉</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>长期待摊费用</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v xml:space="preserve">    长期待摊费用</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>长期待摊费用</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>递延所得税资产</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v xml:space="preserve">    递延所得税资产</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>递延所得税资产</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>短期借款</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v xml:space="preserve">    短期借款</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>短期借款</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>应付票据</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v xml:space="preserve">    应付票据</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>应付票据</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>应付账款</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v xml:space="preserve">    应付账款</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>应付账款</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>预收账款</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v xml:space="preserve">    预收款项</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>预收款项</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>应付职工薪酬</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v xml:space="preserve">    应付职工薪酬</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>应付职工薪酬</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>应交税费</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v xml:space="preserve">    应交税费</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>应交税费</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>应付利息</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v xml:space="preserve">    其他应付款</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>应付利息</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>应付股利</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v xml:space="preserve">    其他应付款</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>应付股利</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>其他应付款</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v xml:space="preserve">    其他应付款</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>其他应付款</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>递延收益</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>递延收益-非流动</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>租赁负债</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v xml:space="preserve">    租赁负债</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>租赁负债</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>长期借款</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v xml:space="preserve">    长期借款</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>长期借款</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>长期应付款</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v xml:space="preserve">    长期应付款</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>长期应付款</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>预计负债</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v xml:space="preserve">    预计负债</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>预计负债</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>递延所得税负债</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v xml:space="preserve">    递延所得税负债</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>递延所得税负债</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>实收资本</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v xml:space="preserve">    实收资本(或股本)</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>实收资本</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>资本公积</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v xml:space="preserve">    资本公积</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>资本公积</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>盈余公积</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v xml:space="preserve">    盈余公积</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>盈余公积</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>利润分配</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v xml:space="preserve">    未分配利润</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>年初未分配利润（调整后）</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>库存股</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v xml:space="preserve">       减:库存股</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>减：库存股</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>其他综合收益</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v xml:space="preserve">    其他综合收益</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>其他综合收益</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>主营业务收入</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>一、营业收入</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>主营业务收入</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>利息收入</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v xml:space="preserve">        财务费用</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>财务费用</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>其他业务收入</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>一、营业收入</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>其他业务收入</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>汇兑损益</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v xml:space="preserve">        财务费用</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>财务费用</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>公允价值变动损益</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>公允价值变动收益</v>
-          </cell>
-          <cell r="D70" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>投资收益</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v xml:space="preserve">         投资收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>投资收益</v>
-          </cell>
-          <cell r="D71" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>营业外收入</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v xml:space="preserve">    加: 营业外收入</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>加：营业外收入</v>
-          </cell>
-          <cell r="D72" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>主营业务成本</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v xml:space="preserve">    减：营业成本</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>其中：主营业务成本</v>
-          </cell>
-          <cell r="D73" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>其他业务成本</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v xml:space="preserve">    减：营业成本</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>其他业务支出</v>
-          </cell>
-          <cell r="D74" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>营业税金及附加</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v xml:space="preserve">        税金及附加</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>营业税金及附加</v>
-          </cell>
-          <cell r="D75" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>利息支出</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v xml:space="preserve">        财务费用</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>财务费用</v>
-          </cell>
-          <cell r="D76" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>销售费用</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v xml:space="preserve">        销售费用</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>营业费用</v>
-          </cell>
-          <cell r="D77" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>管理费用</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v xml:space="preserve">        管理费用</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>管理费用</v>
-          </cell>
-          <cell r="D78" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>研发费用</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v xml:space="preserve">        研发费用</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>研发费用</v>
-          </cell>
-          <cell r="D79" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>财务费用</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v xml:space="preserve">        财务费用</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>财务费用</v>
-          </cell>
-          <cell r="D80" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>资产减值损失</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v xml:space="preserve">   资产减值损失（损失以“－”号填列）</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>资产减值损失</v>
-          </cell>
-          <cell r="D81" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>营业外支出</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v xml:space="preserve">    减：营业外支出</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>减：营业外支出</v>
-          </cell>
-          <cell r="D82" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>所得税费用</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v xml:space="preserve">    减：所得税费用</v>
-          </cell>
-          <cell r="C83" t="str">
-            <v>减：所得税</v>
-          </cell>
-          <cell r="D83" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>重复明细</v>
-          </cell>
-          <cell r="D85" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>本年利润</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v xml:space="preserve">    未分配利润</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>年初未分配利润（调整后）</v>
-          </cell>
-          <cell r="D86" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>年初未分配利润（调整后）</v>
-          </cell>
-          <cell r="D87" t="str">
-            <v>PV</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>外币报表折算差额</v>
-          </cell>
-          <cell r="B88" t="str">
-            <v>外币报表折算差额</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>外币报表折算差额</v>
-          </cell>
-          <cell r="D88" t="str">
-            <v>CV</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
-          </cell>
-          <cell r="D89" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-          <cell r="D90" t="str">
-            <v>PL</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="科目"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>科目编码</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>对应科目</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>123101/借</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>应收账款坏账准备</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>123101/贷</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>应收账款坏账准备</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>123102/借</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>其他应收款坏账准备</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>123102/贷</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>其他应收款坏账准备</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>112202/贷</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>预付账款</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>53010200/借</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>53010200/贷</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>600100/借</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>600100/贷</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>605100/借</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>605100/贷</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>611100/借</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>611100/贷</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>605100/借</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>605100/贷</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>630100/借</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>630100/贷</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>630102/借</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>630102/贷</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>63019801/借</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>63019801/贷</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>640100/借</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>640100/贷</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>640200/借</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>640200/贷</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>640300/借</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>640300/贷</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>660100/借</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>660100/贷</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>660200/借</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>660200/贷</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>660216/借</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>660216/贷</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>660300/借</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>660300/贷</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>671100/借</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>671100/贷</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>671102/借</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>671102/贷</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>680100/借</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>680100/贷</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>9999</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>外币报表折算差额</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>112201/贷</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>112201/借</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>122101/贷</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>122101/借</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>122102/贷</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>122102/借</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>12210301/贷</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>12210301/借</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>12210302/贷</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>12210302/借</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>12210401/贷</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>12210401/借</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>12210402/贷</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>12210402/借</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>122105/贷</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>122105/借</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>122108/贷</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>122108/借</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>122125/贷</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>122125/借</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>224101/贷</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>224101/借</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>224102/贷</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>224102/借</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>224103/贷</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>224103/借</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>224104/贷</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>224104/借</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>224111/贷</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>224111/借</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86" t="str">
-            <v>应收账款</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87" t="str">
-            <v>预收账款</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88" t="str">
-            <v>其他应收款</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89" t="str">
-            <v>其他应付款</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90" t="str">
-            <v>其他应收款</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91" t="str">
-            <v>其他应付款</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2972,11 +760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2992,7 +780,7 @@
       </c>
       <c r="B1">
         <f>COUNTA(A4:A29)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U1" t="s">
         <v>51</v>
@@ -3054,11 +842,10 @@
     </row>
     <row r="2" spans="1:41">
       <c r="U2" t="e">
-        <f>VLOOKUP($A2,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V22" si="0">TRIM($C2)</f>
+        <f t="shared" ref="V2:V25" si="0">TRIM($C2)</f>
         <v/>
       </c>
       <c r="W2" t="e">
@@ -3066,11 +853,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z2" t="e">
@@ -3086,27 +871,24 @@
         <v>#N/A</v>
       </c>
       <c r="AE2" t="e">
-        <f>VLOOKUP(V2,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
-        <f t="shared" ref="AF2:AF22" si="5">FIND("\",$C2)</f>
+        <f t="shared" ref="AF2:AF25" si="5">FIND("\",$C2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG22" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
+        <f t="shared" ref="AG2:AG25" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH2" t="e">
-        <f t="shared" ref="AH2:AH22" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
+        <f t="shared" ref="AH2:AH25" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
-        <f>VLOOKUP(U2,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK2" t="e">
@@ -3114,7 +896,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL2" t="e">
-        <f>VLOOKUP(AK2,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM2" t="e">
@@ -3122,7 +903,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN2" t="e">
-        <f>VLOOKUP(Z2,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO2" t="e">
@@ -3147,7 +927,6 @@
         <v>5</v>
       </c>
       <c r="U3" t="e">
-        <f>VLOOKUP($A3,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V3" t="str">
@@ -3159,11 +938,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z3" t="e">
@@ -3179,7 +956,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE3" t="e">
-        <f>VLOOKUP(V3,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF3" t="e">
@@ -3195,11 +971,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI3" t="e">
-        <f>VLOOKUP(U3,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK3" t="e">
@@ -3207,7 +981,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL3" t="e">
-        <f>VLOOKUP(AK3,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM3" t="e">
@@ -3215,7 +988,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN3" t="e">
-        <f>VLOOKUP(Z3,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO3" t="e">
@@ -3248,7 +1020,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="U4" t="e">
-        <f>VLOOKUP($A4,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
@@ -3260,11 +1031,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z4" t="e">
@@ -3280,7 +1049,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE4" t="e">
-        <f>VLOOKUP(V4,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF4" t="e">
@@ -3296,11 +1064,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
-        <f>VLOOKUP(U4,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK4" t="e">
@@ -3308,7 +1074,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
-        <f>VLOOKUP(AK4,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
@@ -3316,7 +1081,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
-        <f>VLOOKUP(Z4,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO4" t="e">
@@ -3332,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
@@ -3349,23 +1113,20 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="U5" t="e">
-        <f>VLOOKUP($A5,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>=TRIM(RC2)&amp;"/"&amp;RC16</v>
+        <v>=IF(RC[20]="224105",RC[20]&amp;"/"&amp;RC[22],TRIM(RC2)&amp;"/"&amp;RC16)</v>
       </c>
       <c r="W5" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="X5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z5" t="e">
@@ -3381,7 +1142,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE5" t="e">
-        <f>VLOOKUP(V5,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF5" t="e">
@@ -3397,11 +1157,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI5" t="e">
-        <f>VLOOKUP(U5,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK5" t="e">
@@ -3409,7 +1167,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL5" t="e">
-        <f>VLOOKUP(AK5,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM5" t="e">
@@ -3417,7 +1174,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN5" t="e">
-        <f>VLOOKUP(Z5,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO5" t="e">
@@ -3450,7 +1206,6 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="U6" t="e">
-        <f>VLOOKUP($A6,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V6" t="str">
@@ -3462,11 +1217,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z6" t="e">
@@ -3482,7 +1235,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE6" t="e">
-        <f>VLOOKUP(V6,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF6" t="e">
@@ -3498,11 +1250,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI6" t="e">
-        <f>VLOOKUP(U6,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK6" t="e">
@@ -3510,7 +1260,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL6" t="e">
-        <f>VLOOKUP(AK6,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM6" t="e">
@@ -3518,7 +1267,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN6" t="e">
-        <f>VLOOKUP(Z6,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO6" t="e">
@@ -3551,7 +1299,6 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="U7" t="e">
-        <f>VLOOKUP($A7,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V7" t="str">
@@ -3563,11 +1310,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X7" t="e">
-        <f>VLOOKUP(W7,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y7" t="e">
-        <f>VLOOKUP(W7,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z7" t="e">
@@ -3583,7 +1328,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE7" t="e">
-        <f>VLOOKUP(V7,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF7" t="e">
@@ -3599,11 +1343,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI7" t="e">
-        <f>VLOOKUP(U7,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ7" t="e">
-        <f>VLOOKUP(W7,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK7" t="e">
@@ -3611,7 +1353,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL7" t="e">
-        <f>VLOOKUP(AK7,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM7" t="e">
@@ -3619,7 +1360,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN7" t="e">
-        <f>VLOOKUP(Z7,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO7" t="e">
@@ -3652,7 +1392,6 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="U8" t="e">
-        <f>VLOOKUP($A8,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V8" t="str">
@@ -3664,11 +1403,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X8" t="e">
-        <f>VLOOKUP(W8,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y8" t="e">
-        <f>VLOOKUP(W8,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z8" t="e">
@@ -3684,7 +1421,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE8" t="e">
-        <f>VLOOKUP(V8,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF8" t="e">
@@ -3700,11 +1436,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI8" t="e">
-        <f>VLOOKUP(U8,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ8" t="e">
-        <f>VLOOKUP(W8,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK8" t="e">
@@ -3712,7 +1446,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL8" t="e">
-        <f>VLOOKUP(AK8,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM8" t="e">
@@ -3720,7 +1453,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN8" t="e">
-        <f>VLOOKUP(Z8,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO8" t="e">
@@ -3753,7 +1485,6 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="U9" t="e">
-        <f>VLOOKUP($A9,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V9" t="str">
@@ -3765,11 +1496,9 @@
         <v>"&amp;RC3</v>
       </c>
       <c r="X9" t="e">
-        <f>VLOOKUP(W9,[2]科目!$A:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y9" t="e">
-        <f>VLOOKUP(W9,[2]科目!$A:$C,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Z9" t="e">
@@ -3785,7 +1514,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE9" t="e">
-        <f>VLOOKUP(V9,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF9">
@@ -3801,11 +1529,9 @@
         <v>"&amp;RC3</v>
       </c>
       <c r="AI9" t="e">
-        <f>VLOOKUP(U9,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ9" t="e">
-        <f>VLOOKUP(W9,[2]科目!$A:$D,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AK9" t="e">
@@ -3813,7 +1539,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL9" t="e">
-        <f>VLOOKUP(AK9,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM9" t="e">
@@ -3821,7 +1546,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN9" t="e">
-        <f>VLOOKUP(Z9,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO9" t="e">
@@ -3854,7 +1578,6 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="U10" t="e">
-        <f>VLOOKUP($A10,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V10" t="str">
@@ -3866,11 +1589,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X10" t="e">
-        <f>VLOOKUP(W10,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y10" t="e">
-        <f>VLOOKUP(W10,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z10" t="e">
@@ -3886,7 +1607,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE10" t="e">
-        <f>VLOOKUP(V10,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF10" t="e">
@@ -3902,11 +1622,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI10" t="e">
-        <f>VLOOKUP(U10,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ10" t="e">
-        <f>VLOOKUP(W10,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK10" t="e">
@@ -3914,7 +1632,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL10" t="e">
-        <f>VLOOKUP(AK10,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM10" t="e">
@@ -3922,7 +1639,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN10" t="e">
-        <f>VLOOKUP(Z10,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO10" t="e">
@@ -3955,7 +1671,6 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="U11" t="e">
-        <f>VLOOKUP($A11,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V11" t="str">
@@ -3967,11 +1682,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X11" t="e">
-        <f>VLOOKUP(W11,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y11" t="e">
-        <f>VLOOKUP(W11,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z11" t="e">
@@ -3987,7 +1700,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE11" t="e">
-        <f>VLOOKUP(V11,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF11" t="e">
@@ -4003,11 +1715,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI11" t="e">
-        <f>VLOOKUP(U11,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ11" t="e">
-        <f>VLOOKUP(W11,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK11" t="e">
@@ -4015,7 +1725,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL11" t="e">
-        <f>VLOOKUP(AK11,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM11" t="e">
@@ -4023,7 +1732,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN11" t="e">
-        <f>VLOOKUP(Z11,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO11" t="e">
@@ -4056,7 +1764,6 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="U12" t="e">
-        <f>VLOOKUP($A12,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V12" t="str">
@@ -4068,11 +1775,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X12" t="e">
-        <f>VLOOKUP(W12,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y12" t="e">
-        <f>VLOOKUP(W12,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z12" t="e">
@@ -4088,7 +1793,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE12" t="e">
-        <f>VLOOKUP(V12,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF12" t="e">
@@ -4104,11 +1808,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI12" t="e">
-        <f>VLOOKUP(U12,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ12" t="e">
-        <f>VLOOKUP(W12,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK12" t="e">
@@ -4116,7 +1818,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL12" t="e">
-        <f>VLOOKUP(AK12,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM12" t="e">
@@ -4124,7 +1825,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN12" t="e">
-        <f>VLOOKUP(Z12,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO12" t="e">
@@ -4157,7 +1857,6 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="U13" t="e">
-        <f>VLOOKUP($A13,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V13" t="str">
@@ -4169,11 +1868,9 @@
         <v>",RC3)</v>
       </c>
       <c r="X13" t="e">
-        <f>VLOOKUP(W13,[2]科目!$A:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y13" t="e">
-        <f>VLOOKUP(W13,[2]科目!$A:$C,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Z13" t="e">
@@ -4189,7 +1886,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE13" t="e">
-        <f>VLOOKUP(V13,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF13">
@@ -4205,11 +1901,9 @@
         <v>",RC3)</v>
       </c>
       <c r="AI13" t="e">
-        <f>VLOOKUP(U13,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ13" t="e">
-        <f>VLOOKUP(W13,[2]科目!$A:$D,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AK13" t="e">
@@ -4217,7 +1911,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL13" t="e">
-        <f>VLOOKUP(AK13,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM13" t="e">
@@ -4225,7 +1918,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN13" t="e">
-        <f>VLOOKUP(Z13,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO13" t="e">
@@ -4258,7 +1950,6 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="U14" t="e">
-        <f>VLOOKUP($A14,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V14" t="str">
@@ -4270,11 +1961,9 @@
         <v>",RC3,RC[-1]+1),1000)</v>
       </c>
       <c r="X14" t="e">
-        <f>VLOOKUP(W14,[2]科目!$A:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" t="e">
-        <f>VLOOKUP(W14,[2]科目!$A:$C,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Z14" t="e">
@@ -4290,7 +1979,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE14" t="e">
-        <f>VLOOKUP(V14,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF14">
@@ -4306,11 +1994,9 @@
         <v>",RC3,RC[-1]+1),1000)</v>
       </c>
       <c r="AI14" t="e">
-        <f>VLOOKUP(U14,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ14" t="e">
-        <f>VLOOKUP(W14,[2]科目!$A:$D,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AK14" t="e">
@@ -4318,7 +2004,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL14" t="e">
-        <f>VLOOKUP(AK14,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM14" t="e">
@@ -4326,7 +2011,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN14" t="e">
-        <f>VLOOKUP(Z14,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO14" t="e">
@@ -4359,7 +2043,6 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="U15" t="e">
-        <f>VLOOKUP($A15,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V15" t="str">
@@ -4371,11 +2054,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X15" t="e">
-        <f>VLOOKUP(W15,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y15" t="e">
-        <f>VLOOKUP(W15,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z15" t="e">
@@ -4391,7 +2072,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE15" t="e">
-        <f>VLOOKUP(V15,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF15" t="e">
@@ -4407,11 +2087,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI15" t="e">
-        <f>VLOOKUP(U15,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ15" t="e">
-        <f>VLOOKUP(W15,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK15" t="e">
@@ -4419,7 +2097,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL15" t="e">
-        <f>VLOOKUP(AK15,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM15" t="e">
@@ -4427,7 +2104,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN15" t="e">
-        <f>VLOOKUP(Z15,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO15" t="e">
@@ -4460,7 +2136,6 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="U16" t="e">
-        <f>VLOOKUP($A16,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V16" t="str">
@@ -4472,11 +2147,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X16" t="e">
-        <f>VLOOKUP(W16,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y16" t="e">
-        <f>VLOOKUP(W16,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z16" t="e">
@@ -4492,7 +2165,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE16" t="e">
-        <f>VLOOKUP(V16,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF16" t="e">
@@ -4508,11 +2180,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI16" t="e">
-        <f>VLOOKUP(U16,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ16" t="e">
-        <f>VLOOKUP(W16,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK16" t="e">
@@ -4520,7 +2190,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL16" t="e">
-        <f>VLOOKUP(AK16,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM16" t="e">
@@ -4528,7 +2197,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN16" t="e">
-        <f>VLOOKUP(Z16,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO16" t="e">
@@ -4561,7 +2229,6 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="U17" t="e">
-        <f>VLOOKUP($A17,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V17" t="str">
@@ -4573,11 +2240,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X17" t="e">
-        <f>VLOOKUP(W17,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y17" t="e">
-        <f>VLOOKUP(W17,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z17" t="e">
@@ -4593,7 +2258,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE17" t="e">
-        <f>VLOOKUP(V17,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF17" t="e">
@@ -4609,11 +2273,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI17" t="e">
-        <f>VLOOKUP(U17,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ17" t="e">
-        <f>VLOOKUP(W17,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK17" t="e">
@@ -4621,7 +2283,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL17" t="e">
-        <f>VLOOKUP(AK17,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM17" t="e">
@@ -4629,7 +2290,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN17" t="e">
-        <f>VLOOKUP(Z17,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO17" t="e">
@@ -4662,7 +2322,6 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="U18" t="e">
-        <f>VLOOKUP($A18,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V18" t="str">
@@ -4674,11 +2333,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X18" t="e">
-        <f>VLOOKUP(W18,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y18" t="e">
-        <f>VLOOKUP(W18,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z18" t="e">
@@ -4694,7 +2351,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE18" t="e">
-        <f>VLOOKUP(V18,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF18" t="e">
@@ -4710,11 +2366,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI18" t="e">
-        <f>VLOOKUP(U18,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ18" t="e">
-        <f>VLOOKUP(W18,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK18" t="e">
@@ -4722,7 +2376,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL18" t="e">
-        <f>VLOOKUP(AK18,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM18" t="e">
@@ -4730,7 +2383,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN18" t="e">
-        <f>VLOOKUP(Z18,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO18" t="e">
@@ -4763,7 +2415,6 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="U19" t="e">
-        <f>VLOOKUP($A19,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V19" t="str">
@@ -4775,11 +2426,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X19" t="e">
-        <f>VLOOKUP(W19,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y19" t="e">
-        <f>VLOOKUP(W19,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z19" t="e">
@@ -4795,7 +2444,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE19" t="e">
-        <f>VLOOKUP(V19,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF19" t="e">
@@ -4811,11 +2459,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI19" t="e">
-        <f>VLOOKUP(U19,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ19" t="e">
-        <f>VLOOKUP(W19,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK19" t="e">
@@ -4823,7 +2469,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL19" t="e">
-        <f>VLOOKUP(AK19,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM19" t="e">
@@ -4831,7 +2476,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN19" t="e">
-        <f>VLOOKUP(Z19,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO19" t="e">
@@ -4864,7 +2508,6 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="U20" t="e">
-        <f>VLOOKUP($A20,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V20" t="str">
@@ -4876,11 +2519,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X20" t="e">
-        <f>VLOOKUP(W20,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y20" t="e">
-        <f>VLOOKUP(W20,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z20" t="e">
@@ -4896,7 +2537,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE20" t="e">
-        <f>VLOOKUP(V20,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF20" t="e">
@@ -4912,11 +2552,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI20" t="e">
-        <f>VLOOKUP(U20,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ20" t="e">
-        <f>VLOOKUP(W20,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK20" t="e">
@@ -4924,7 +2562,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL20" t="e">
-        <f>VLOOKUP(AK20,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM20" t="e">
@@ -4932,7 +2569,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN20" t="e">
-        <f>VLOOKUP(Z20,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO20" t="e">
@@ -4965,7 +2601,6 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="U21" t="e">
-        <f>VLOOKUP($A21,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V21" t="str">
@@ -4977,11 +2612,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X21" t="e">
-        <f>VLOOKUP(W21,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y21" t="e">
-        <f>VLOOKUP(W21,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z21" t="e">
@@ -4997,7 +2630,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE21" t="e">
-        <f>VLOOKUP(V21,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF21" t="e">
@@ -5013,11 +2645,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI21" t="e">
-        <f>VLOOKUP(U21,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ21" t="e">
-        <f>VLOOKUP(W21,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK21" t="e">
@@ -5025,7 +2655,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL21" t="e">
-        <f>VLOOKUP(AK21,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM21" t="e">
@@ -5033,7 +2662,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN21" t="e">
-        <f>VLOOKUP(Z21,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO21" t="e">
@@ -5066,7 +2694,6 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="U22" t="e">
-        <f>VLOOKUP($A22,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V22" t="str">
@@ -5078,11 +2705,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X22" t="e">
-        <f>VLOOKUP(W22,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y22" t="e">
-        <f>VLOOKUP(W22,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z22" t="e">
@@ -5098,7 +2723,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE22" t="e">
-        <f>VLOOKUP(V22,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF22" t="e">
@@ -5114,11 +2738,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI22" t="e">
-        <f>VLOOKUP(U22,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ22" t="e">
-        <f>VLOOKUP(W22,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK22" t="e">
@@ -5126,7 +2748,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL22" t="e">
-        <f>VLOOKUP(AK22,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM22" t="e">
@@ -5134,7 +2755,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN22" t="e">
-        <f>VLOOKUP(Z22,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO22" t="e">
@@ -5143,11 +2763,21 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="1">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5156,13 +2786,39 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
+      <c r="V23" t="str">
+        <f t="shared" si="0"/>
+        <v>=LEFT(RC2,6)</v>
+      </c>
+      <c r="AF23" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -5171,13 +2827,39 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v>=SUMIF(C[-1],RC[-1],C27)</v>
+      </c>
+      <c r="AF24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="1">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5186,6 +2868,22 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
+      <c r="V25" t="str">
+        <f t="shared" si="0"/>
+        <v>=IF(RC[-1]&gt;0,"借","贷")</v>
+      </c>
+      <c r="AF25" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1"/>
@@ -5340,7 +3038,6 @@
     </row>
     <row r="2" spans="1:41">
       <c r="U2" t="e">
-        <f>VLOOKUP($A2,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
@@ -5352,11 +3049,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z2" t="e">
@@ -5372,7 +3067,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE2" t="e">
-        <f>VLOOKUP(V2,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
@@ -5388,11 +3082,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
-        <f>VLOOKUP(U2,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK2" t="e">
@@ -5400,7 +3092,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL2" t="e">
-        <f>VLOOKUP(AK2,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM2" t="e">
@@ -5408,7 +3099,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN2" t="e">
-        <f>VLOOKUP(Z2,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO2" t="e">
@@ -5433,7 +3123,6 @@
         <v>5</v>
       </c>
       <c r="U3" t="e">
-        <f>VLOOKUP($A3,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V3" t="str">
@@ -5445,11 +3134,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z3" t="e">
@@ -5465,7 +3152,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE3" t="e">
-        <f>VLOOKUP(V3,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF3" t="e">
@@ -5481,11 +3167,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI3" t="e">
-        <f>VLOOKUP(U3,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK3" t="e">
@@ -5493,7 +3177,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL3" t="e">
-        <f>VLOOKUP(AK3,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM3" t="e">
@@ -5501,7 +3184,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN3" t="e">
-        <f>VLOOKUP(Z3,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO3" t="e">
@@ -5534,7 +3216,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="U4" t="e">
-        <f>VLOOKUP($A4,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
@@ -5546,11 +3227,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z4" t="e">
@@ -5566,7 +3245,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE4" t="e">
-        <f>VLOOKUP(V4,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF4" t="e">
@@ -5582,11 +3260,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
-        <f>VLOOKUP(U4,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK4" t="e">
@@ -5594,7 +3270,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
-        <f>VLOOKUP(AK4,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
@@ -5602,7 +3277,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
-        <f>VLOOKUP(Z4,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO4" t="e">
@@ -5635,7 +3309,6 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="U5" t="e">
-        <f>VLOOKUP($A5,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V5" t="str">
@@ -5647,11 +3320,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z5" t="e">
@@ -5667,7 +3338,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE5" t="e">
-        <f>VLOOKUP(V5,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF5" t="e">
@@ -5683,11 +3353,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI5" t="e">
-        <f>VLOOKUP(U5,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK5" t="e">
@@ -5695,7 +3363,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL5" t="e">
-        <f>VLOOKUP(AK5,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM5" t="e">
@@ -5703,7 +3370,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN5" t="e">
-        <f>VLOOKUP(Z5,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO5" t="e">
@@ -5736,7 +3402,6 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="U6" t="e">
-        <f>VLOOKUP($A6,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V6" t="str">
@@ -5748,11 +3413,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z6" t="e">
@@ -5768,7 +3431,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE6" t="e">
-        <f>VLOOKUP(V6,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF6" t="e">
@@ -5784,11 +3446,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI6" t="e">
-        <f>VLOOKUP(U6,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK6" t="e">
@@ -5796,7 +3456,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL6" t="e">
-        <f>VLOOKUP(AK6,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM6" t="e">
@@ -5804,7 +3463,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN6" t="e">
-        <f>VLOOKUP(Z6,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO6" t="e">
@@ -5837,7 +3495,6 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="U7" t="e">
-        <f>VLOOKUP($A7,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V7" t="str">
@@ -5849,11 +3506,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X7" t="e">
-        <f>VLOOKUP(W7,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y7" t="e">
-        <f>VLOOKUP(W7,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z7" t="e">
@@ -5869,7 +3524,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE7" t="e">
-        <f>VLOOKUP(V7,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF7" t="e">
@@ -5885,11 +3539,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI7" t="e">
-        <f>VLOOKUP(U7,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ7" t="e">
-        <f>VLOOKUP(W7,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK7" t="e">
@@ -5897,7 +3549,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL7" t="e">
-        <f>VLOOKUP(AK7,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM7" t="e">
@@ -5905,7 +3556,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN7" t="e">
-        <f>VLOOKUP(Z7,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO7" t="e">
@@ -5938,7 +3588,6 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="U8" t="e">
-        <f>VLOOKUP($A8,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V8" t="str">
@@ -5950,11 +3599,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X8" t="e">
-        <f>VLOOKUP(W8,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y8" t="e">
-        <f>VLOOKUP(W8,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z8" t="e">
@@ -5970,7 +3617,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE8" t="e">
-        <f>VLOOKUP(V8,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF8" t="e">
@@ -5986,11 +3632,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI8" t="e">
-        <f>VLOOKUP(U8,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ8" t="e">
-        <f>VLOOKUP(W8,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK8" t="e">
@@ -5998,7 +3642,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL8" t="e">
-        <f>VLOOKUP(AK8,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM8" t="e">
@@ -6006,7 +3649,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN8" t="e">
-        <f>VLOOKUP(Z8,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO8" t="e">
@@ -6039,7 +3681,6 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="U9" t="e">
-        <f>VLOOKUP($A9,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V9" t="str">
@@ -6051,11 +3692,9 @@
         <v>"&amp;TRIM(RC2)&amp;"</v>
       </c>
       <c r="X9" t="e">
-        <f>VLOOKUP(W9,[2]科目!$A:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y9" t="e">
-        <f>VLOOKUP(W9,[2]科目!$A:$C,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Z9" t="e">
@@ -6071,7 +3710,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE9" t="e">
-        <f>VLOOKUP(V9,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF9">
@@ -6087,11 +3725,9 @@
         <v>"&amp;TRIM(RC2)&amp;"</v>
       </c>
       <c r="AI9" t="e">
-        <f>VLOOKUP(U9,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ9" t="e">
-        <f>VLOOKUP(W9,[2]科目!$A:$D,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AK9" t="e">
@@ -6099,7 +3735,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL9" t="e">
-        <f>VLOOKUP(AK9,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM9" t="e">
@@ -6107,7 +3742,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN9" t="e">
-        <f>VLOOKUP(Z9,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO9" t="e">
@@ -6140,7 +3774,6 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="U10" t="e">
-        <f>VLOOKUP($A10,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V10" t="str">
@@ -6152,11 +3785,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X10" t="e">
-        <f>VLOOKUP(W10,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y10" t="e">
-        <f>VLOOKUP(W10,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z10" t="e">
@@ -6172,7 +3803,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE10" t="e">
-        <f>VLOOKUP(V10,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF10" t="e">
@@ -6188,11 +3818,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI10" t="e">
-        <f>VLOOKUP(U10,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ10" t="e">
-        <f>VLOOKUP(W10,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK10" t="e">
@@ -6200,7 +3828,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL10" t="e">
-        <f>VLOOKUP(AK10,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM10" t="e">
@@ -6208,7 +3835,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN10" t="e">
-        <f>VLOOKUP(Z10,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO10" t="e">
@@ -6241,7 +3867,6 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="U11" t="e">
-        <f>VLOOKUP($A11,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V11" t="str">
@@ -6253,11 +3878,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X11" t="e">
-        <f>VLOOKUP(W11,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y11" t="e">
-        <f>VLOOKUP(W11,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z11" t="e">
@@ -6273,7 +3896,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE11" t="e">
-        <f>VLOOKUP(V11,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF11" t="e">
@@ -6289,11 +3911,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI11" t="e">
-        <f>VLOOKUP(U11,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ11" t="e">
-        <f>VLOOKUP(W11,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK11" t="e">
@@ -6301,7 +3921,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL11" t="e">
-        <f>VLOOKUP(AK11,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM11" t="e">
@@ -6309,7 +3928,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN11" t="e">
-        <f>VLOOKUP(Z11,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO11" t="e">
@@ -6342,7 +3960,6 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="U12" t="e">
-        <f>VLOOKUP($A12,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V12" t="str">
@@ -6354,11 +3971,9 @@
         <v>",RC2)</v>
       </c>
       <c r="X12" t="e">
-        <f>VLOOKUP(W12,[2]科目!$A:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y12" t="e">
-        <f>VLOOKUP(W12,[2]科目!$A:$C,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Z12" t="e">
@@ -6374,7 +3989,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE12" t="e">
-        <f>VLOOKUP(V12,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF12">
@@ -6390,11 +4004,9 @@
         <v>",RC2)</v>
       </c>
       <c r="AI12" t="e">
-        <f>VLOOKUP(U12,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ12" t="e">
-        <f>VLOOKUP(W12,[2]科目!$A:$D,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AK12" t="e">
@@ -6402,7 +4014,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL12" t="e">
-        <f>VLOOKUP(AK12,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM12" t="e">
@@ -6410,7 +4021,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN12" t="e">
-        <f>VLOOKUP(Z12,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO12" t="e">
@@ -6443,7 +4053,6 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="U13" t="e">
-        <f>VLOOKUP($A13,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V13" t="str">
@@ -6455,11 +4064,9 @@
         <v>",RC2,RC[-1]+1),1000)</v>
       </c>
       <c r="X13" t="e">
-        <f>VLOOKUP(W13,[2]科目!$A:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y13" t="e">
-        <f>VLOOKUP(W13,[2]科目!$A:$C,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Z13" t="e">
@@ -6475,7 +4082,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE13" t="e">
-        <f>VLOOKUP(V13,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF13">
@@ -6491,11 +4097,9 @@
         <v>",RC2,RC[-1]+1),1000)</v>
       </c>
       <c r="AI13" t="e">
-        <f>VLOOKUP(U13,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ13" t="e">
-        <f>VLOOKUP(W13,[2]科目!$A:$D,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AK13" t="e">
@@ -6503,7 +4107,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL13" t="e">
-        <f>VLOOKUP(AK13,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM13" t="e">
@@ -6511,7 +4114,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN13" t="e">
-        <f>VLOOKUP(Z13,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO13" t="e">
@@ -6544,7 +4146,6 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="U14" t="e">
-        <f>VLOOKUP($A14,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V14" t="str">
@@ -6556,11 +4157,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X14" t="e">
-        <f>VLOOKUP(W14,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y14" t="e">
-        <f>VLOOKUP(W14,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z14" t="e">
@@ -6576,7 +4175,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE14" t="e">
-        <f>VLOOKUP(V14,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF14" t="e">
@@ -6592,11 +4190,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI14" t="e">
-        <f>VLOOKUP(U14,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ14" t="e">
-        <f>VLOOKUP(W14,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK14" t="e">
@@ -6604,7 +4200,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL14" t="e">
-        <f>VLOOKUP(AK14,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM14" t="e">
@@ -6612,7 +4207,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN14" t="e">
-        <f>VLOOKUP(Z14,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO14" t="e">
@@ -6645,7 +4239,6 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="U15" t="e">
-        <f>VLOOKUP($A15,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V15" t="str">
@@ -6657,11 +4250,9 @@
         <v>"&amp;RC16</v>
       </c>
       <c r="X15" t="e">
-        <f>VLOOKUP(W15,[2]科目!$A:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y15" t="e">
-        <f>VLOOKUP(W15,[2]科目!$A:$C,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Z15" t="e">
@@ -6677,7 +4268,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE15" t="e">
-        <f>VLOOKUP(V15,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF15">
@@ -6693,11 +4283,9 @@
         <v>"&amp;RC16</v>
       </c>
       <c r="AI15" t="e">
-        <f>VLOOKUP(U15,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ15" t="e">
-        <f>VLOOKUP(W15,[2]科目!$A:$D,4,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AK15" t="e">
@@ -6705,7 +4293,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL15" t="e">
-        <f>VLOOKUP(AK15,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM15" t="e">
@@ -6713,7 +4300,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN15" t="e">
-        <f>VLOOKUP(Z15,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO15" t="e">
@@ -6746,7 +4332,6 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="U16" t="e">
-        <f>VLOOKUP($A16,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V16" t="str">
@@ -6758,11 +4343,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X16" t="e">
-        <f>VLOOKUP(W16,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y16" t="e">
-        <f>VLOOKUP(W16,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z16" t="e">
@@ -6778,7 +4361,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE16" t="e">
-        <f>VLOOKUP(V16,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF16" t="e">
@@ -6794,11 +4376,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI16" t="e">
-        <f>VLOOKUP(U16,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ16" t="e">
-        <f>VLOOKUP(W16,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK16" t="e">
@@ -6806,7 +4386,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL16" t="e">
-        <f>VLOOKUP(AK16,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM16" t="e">
@@ -6814,7 +4393,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN16" t="e">
-        <f>VLOOKUP(Z16,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO16" t="e">
@@ -6847,7 +4425,6 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="U17" t="e">
-        <f>VLOOKUP($A17,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V17" t="str">
@@ -6859,11 +4436,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X17" t="e">
-        <f>VLOOKUP(W17,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y17" t="e">
-        <f>VLOOKUP(W17,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z17" t="e">
@@ -6879,7 +4454,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE17" t="e">
-        <f>VLOOKUP(V17,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF17" t="e">
@@ -6895,11 +4469,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI17" t="e">
-        <f>VLOOKUP(U17,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ17" t="e">
-        <f>VLOOKUP(W17,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK17" t="e">
@@ -6907,7 +4479,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL17" t="e">
-        <f>VLOOKUP(AK17,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM17" t="e">
@@ -6915,7 +4486,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN17" t="e">
-        <f>VLOOKUP(Z17,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO17" t="e">
@@ -6948,7 +4518,6 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="U18" t="e">
-        <f>VLOOKUP($A18,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V18" t="str">
@@ -6960,11 +4529,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X18" t="e">
-        <f>VLOOKUP(W18,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y18" t="e">
-        <f>VLOOKUP(W18,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z18" t="e">
@@ -6980,7 +4547,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE18" t="e">
-        <f>VLOOKUP(V18,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF18" t="e">
@@ -6996,11 +4562,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI18" t="e">
-        <f>VLOOKUP(U18,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ18" t="e">
-        <f>VLOOKUP(W18,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK18" t="e">
@@ -7008,7 +4572,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL18" t="e">
-        <f>VLOOKUP(AK18,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM18" t="e">
@@ -7016,7 +4579,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN18" t="e">
-        <f>VLOOKUP(Z18,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO18" t="e">
@@ -7049,7 +4611,6 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="U19" t="e">
-        <f>VLOOKUP($A19,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V19" t="str">
@@ -7061,11 +4622,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X19" t="e">
-        <f>VLOOKUP(W19,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y19" t="e">
-        <f>VLOOKUP(W19,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z19" t="e">
@@ -7081,7 +4640,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE19" t="e">
-        <f>VLOOKUP(V19,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF19" t="e">
@@ -7097,11 +4655,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI19" t="e">
-        <f>VLOOKUP(U19,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ19" t="e">
-        <f>VLOOKUP(W19,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK19" t="e">
@@ -7109,7 +4665,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL19" t="e">
-        <f>VLOOKUP(AK19,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM19" t="e">
@@ -7117,7 +4672,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN19" t="e">
-        <f>VLOOKUP(Z19,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO19" t="e">
@@ -7150,7 +4704,6 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="U20" t="e">
-        <f>VLOOKUP($A20,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V20" t="str">
@@ -7162,11 +4715,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X20" t="e">
-        <f>VLOOKUP(W20,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y20" t="e">
-        <f>VLOOKUP(W20,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z20" t="e">
@@ -7182,7 +4733,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE20" t="e">
-        <f>VLOOKUP(V20,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF20" t="e">
@@ -7198,11 +4748,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI20" t="e">
-        <f>VLOOKUP(U20,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ20" t="e">
-        <f>VLOOKUP(W20,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK20" t="e">
@@ -7210,7 +4758,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL20" t="e">
-        <f>VLOOKUP(AK20,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM20" t="e">
@@ -7218,7 +4765,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN20" t="e">
-        <f>VLOOKUP(Z20,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO20" t="e">
@@ -7251,7 +4797,6 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="U21" t="e">
-        <f>VLOOKUP($A21,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V21" t="str">
@@ -7263,11 +4808,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X21" t="e">
-        <f>VLOOKUP(W21,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y21" t="e">
-        <f>VLOOKUP(W21,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z21" t="e">
@@ -7283,7 +4826,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE21" t="e">
-        <f>VLOOKUP(V21,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF21" t="e">
@@ -7299,11 +4841,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI21" t="e">
-        <f>VLOOKUP(U21,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ21" t="e">
-        <f>VLOOKUP(W21,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK21" t="e">
@@ -7311,7 +4851,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL21" t="e">
-        <f>VLOOKUP(AK21,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM21" t="e">
@@ -7319,7 +4858,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN21" t="e">
-        <f>VLOOKUP(Z21,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO21" t="e">
@@ -7352,7 +4890,6 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="U22" t="e">
-        <f>VLOOKUP($A22,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V22" t="str">
@@ -7364,11 +4901,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X22" t="e">
-        <f>VLOOKUP(W22,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y22" t="e">
-        <f>VLOOKUP(W22,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z22" t="e">
@@ -7384,7 +4919,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE22" t="e">
-        <f>VLOOKUP(V22,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF22" t="e">
@@ -7400,11 +4934,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI22" t="e">
-        <f>VLOOKUP(U22,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ22" t="e">
-        <f>VLOOKUP(W22,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK22" t="e">
@@ -7412,7 +4944,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL22" t="e">
-        <f>VLOOKUP(AK22,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM22" t="e">
@@ -7420,7 +4951,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN22" t="e">
-        <f>VLOOKUP(Z22,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO22" t="e">
@@ -7622,7 +5152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20141F65-1A85-4B98-84F9-1C603928B969}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -7704,79 +5234,71 @@
     </row>
     <row r="2" spans="1:41">
       <c r="U2" t="e">
-        <f>VLOOKUP($A2,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V25" si="0">TRIM($C2)</f>
+        <f t="shared" ref="V2:V6" si="0">TRIM($C2)</f>
         <v/>
       </c>
       <c r="W2" t="e">
-        <f t="shared" ref="W2:W22" si="1">_xlfn.IFNA(AE2,AH2)</f>
+        <f t="shared" ref="W2:W6" si="1">_xlfn.IFNA(AE2,AH2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z2" t="e">
-        <f t="shared" ref="Z2:Z22" si="2">U2&amp;"\"&amp;$C2</f>
+        <f t="shared" ref="Z2:Z6" si="2">U2&amp;"\"&amp;$C2</f>
         <v>#N/A</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA22" si="3">IF($P2="借",$R2,-$R2)</f>
+        <f t="shared" ref="AA2:AA6" si="3">IF($P2="借",$R2,-$R2)</f>
         <v>0</v>
       </c>
       <c r="AB2" t="e">
-        <f t="shared" ref="AB2:AB22" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
+        <f t="shared" ref="AB2:AB6" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
         <v>#N/A</v>
       </c>
       <c r="AE2" t="e">
-        <f>VLOOKUP(V2,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
-        <f t="shared" ref="AF2:AF25" si="5">FIND("\",$C2)</f>
+        <f t="shared" ref="AF2:AF6" si="5">FIND("\",$C2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG25" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
+        <f t="shared" ref="AG2:AG6" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH2" t="e">
-        <f t="shared" ref="AH2:AH25" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
+        <f t="shared" ref="AH2:AH6" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
-        <f>VLOOKUP(U2,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ2" t="e">
-        <f>VLOOKUP(W2,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK2" t="e">
-        <f t="shared" ref="AK2:AK22" si="8">AI2&amp;"/"&amp;AJ2</f>
+        <f t="shared" ref="AK2:AK6" si="8">AI2&amp;"/"&amp;AJ2</f>
         <v>#N/A</v>
       </c>
       <c r="AL2" t="e">
-        <f>VLOOKUP(AK2,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM2" t="e">
-        <f t="shared" ref="AM2:AM22" si="9">ROUND(AA2*AL2,2)</f>
+        <f t="shared" ref="AM2:AM6" si="9">ROUND(AA2*AL2,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN2" t="e">
-        <f>VLOOKUP(Z2,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO2" t="e">
-        <f t="shared" ref="AO2:AO22" si="10">_xlfn.IFNA(AM2,AN2)</f>
+        <f t="shared" ref="AO2:AO6" si="10">_xlfn.IFNA(AM2,AN2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7797,7 +5319,6 @@
         <v>5</v>
       </c>
       <c r="U3" t="e">
-        <f>VLOOKUP($A3,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V3" t="str">
@@ -7809,11 +5330,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z3" t="e">
@@ -7829,7 +5348,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE3" t="e">
-        <f>VLOOKUP(V3,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF3" t="e">
@@ -7845,11 +5363,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI3" t="e">
-        <f>VLOOKUP(U3,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ3" t="e">
-        <f>VLOOKUP(W3,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK3" t="e">
@@ -7857,7 +5373,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL3" t="e">
-        <f>VLOOKUP(AK3,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM3" t="e">
@@ -7865,7 +5380,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN3" t="e">
-        <f>VLOOKUP(Z3,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO3" t="e">
@@ -7878,10 +5392,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>50</v>
@@ -7898,7 +5412,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="U4" t="e">
-        <f>VLOOKUP($A4,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
@@ -7910,11 +5423,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z4" t="e">
@@ -7930,7 +5441,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE4" t="e">
-        <f>VLOOKUP(V4,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF4" t="e">
@@ -7946,11 +5456,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
-        <f>VLOOKUP(U4,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ4" t="e">
-        <f>VLOOKUP(W4,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK4" t="e">
@@ -7958,7 +5466,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
-        <f>VLOOKUP(AK4,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
@@ -7966,7 +5473,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
-        <f>VLOOKUP(Z4,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO4" t="e">
@@ -7979,10 +5485,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
@@ -7999,7 +5505,6 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="U5" t="e">
-        <f>VLOOKUP($A5,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V5" t="str">
@@ -8011,11 +5516,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z5" t="e">
@@ -8031,7 +5534,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE5" t="e">
-        <f>VLOOKUP(V5,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF5" t="e">
@@ -8047,11 +5549,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI5" t="e">
-        <f>VLOOKUP(U5,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ5" t="e">
-        <f>VLOOKUP(W5,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK5" t="e">
@@ -8059,7 +5559,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL5" t="e">
-        <f>VLOOKUP(AK5,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM5" t="e">
@@ -8067,7 +5566,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN5" t="e">
-        <f>VLOOKUP(Z5,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO5" t="e">
@@ -8080,10 +5578,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
@@ -8100,7 +5598,6 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="U6" t="e">
-        <f>VLOOKUP($A6,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V6" t="str">
@@ -8112,11 +5609,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="X6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$C,2,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$C,3,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z6" t="e">
@@ -8132,7 +5627,6 @@
         <v>#N/A</v>
       </c>
       <c r="AE6" t="e">
-        <f>VLOOKUP(V6,[3]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF6" t="e">
@@ -8148,11 +5642,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI6" t="e">
-        <f>VLOOKUP(U6,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ6" t="e">
-        <f>VLOOKUP(W6,[2]科目!$A:$D,4,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK6" t="e">
@@ -8160,7 +5652,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL6" t="e">
-        <f>VLOOKUP(AK6,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM6" t="e">
@@ -8168,7 +5659,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN6" t="e">
-        <f>VLOOKUP(Z6,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO6" t="e">

--- a/00框架文件/04Formula.xlsx
+++ b/00框架文件/04Formula.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D3547D-7CB1-4771-8D19-523755FFEFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F447EC2A-758F-4F9E-86E2-A06921CE0AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
   <si>
     <t>处理列数</t>
   </si>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=VLOOKUP(RC[-2],'[%s]%s'!C1:C3,3,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>=RC[-5]&amp;"\"&amp;RC3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,6 +409,54 @@
   </si>
   <si>
     <t>=IF(RC[-1]&gt;0,"借","贷")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3科目名称（特殊规则）</t>
+  </si>
+  <si>
+    <t>=IFNA(RC[20],RC[21])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=VLOOKUP(RC[-23],'[%s]%s'!C1:C3,3,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=VLOOKUP(RC[-19],'[%s]%s'!C1:C2,2,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重分类</t>
+  </si>
+  <si>
+    <t>A3一般科目名称</t>
+  </si>
+  <si>
+    <t>重分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=IFERROR(RC[20],RC[21])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3科目名称（重分类后）</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(RC[-25],'[%s]%s'!C1:C2,2,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=VLOOKUP(RC[-25],'[%s]%s'!C1:C3,3,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=IFERROR(RC[1],RC[2])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=VLOOKUP(RC[-19],'[%s]%s'!C1:C2,2,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,11 +804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -780,64 +824,64 @@
       </c>
       <c r="B1">
         <f>COUNTA(A4:A29)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s">
-        <v>68</v>
-      </c>
       <c r="AO1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -1006,7 +1050,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -1096,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
@@ -1375,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1396,7 +1440,7 @@
       </c>
       <c r="V8" t="str">
         <f t="shared" si="0"/>
-        <v>=VLOOKUP(RC[-2],'[%s]%s'!C1:C3,3,0)</v>
+        <v>=IFNA(RC[20],RC[21])</v>
       </c>
       <c r="W8" t="e">
         <f t="shared" si="1"/>
@@ -1468,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
@@ -1561,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -1750,7 +1794,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
@@ -1840,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -1933,7 +1977,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -2026,7 +2070,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -2215,7 +2259,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
@@ -2677,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>30</v>
@@ -2767,10 +2811,10 @@
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
@@ -2808,10 +2852,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>30</v>
@@ -2849,10 +2893,10 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>30</v>
@@ -2886,11 +2930,21 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="1">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2901,11 +2955,21 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2954,13 +3018,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441FA250-AE24-4D9C-8E7A-9FF2C1FF3B97}">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2975,65 +3039,65 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>COUNTA(A4:A29)</f>
-        <v>22</v>
+        <f>COUNTA(A4:A35)</f>
+        <v>26</v>
       </c>
       <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s">
-        <v>68</v>
-      </c>
       <c r="AO1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -3041,7 +3105,7 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V25" si="0">TRIM($C2)</f>
+        <f t="shared" ref="V2:V27" si="0">TRIM($C2)</f>
         <v/>
       </c>
       <c r="W2" t="e">
@@ -3070,15 +3134,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
-        <f t="shared" ref="AF2:AF25" si="5">FIND("\",$C2)</f>
+        <f t="shared" ref="AF2:AF27" si="5">FIND("\",$C2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG25" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
+        <f t="shared" ref="AG2:AG27" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH2" t="e">
-        <f t="shared" ref="AH2:AH25" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
+        <f t="shared" ref="AH2:AH27" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
@@ -3199,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
@@ -3292,7 +3356,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
@@ -3385,13 +3449,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3484,7 +3548,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3571,13 +3635,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3592,7 +3656,7 @@
       </c>
       <c r="V8" t="str">
         <f t="shared" si="0"/>
-        <v>=VLOOKUP(RC[-2],'[%s]%s'!C1:C3,3,0)</v>
+        <v>=IFERROR(RC[20],RC[21])</v>
       </c>
       <c r="W8" t="e">
         <f t="shared" si="1"/>
@@ -3664,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
@@ -3757,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -3850,7 +3914,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
@@ -3943,7 +4007,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -4036,7 +4100,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -4126,16 +4190,16 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -4219,10 +4283,10 @@
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>30</v>
@@ -4414,7 +4478,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -4600,7 +4664,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -4777,10 +4841,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>30</v>
@@ -4870,10 +4934,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>30</v>
@@ -4963,10 +5027,10 @@
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
@@ -5004,10 +5068,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>30</v>
@@ -5045,10 +5109,10 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>30</v>
@@ -5082,11 +5146,21 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="1">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5095,13 +5169,39 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
+      <c r="V26" t="str">
+        <f t="shared" si="0"/>
+        <v>=VLOOKUP(RC[-19],'[%s]%s'!C1:C2,2,0)</v>
+      </c>
+      <c r="AF26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -5110,13 +5210,39 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
+      <c r="V27" t="str">
+        <f t="shared" si="0"/>
+        <v>=IFERROR(RC[1],RC[2])</v>
+      </c>
+      <c r="AF27" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="1">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -5127,11 +5253,21 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="1">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5140,6 +5276,96 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5175,61 +5401,61 @@
         <v>3</v>
       </c>
       <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s">
-        <v>68</v>
-      </c>
       <c r="AO1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -5392,16 +5618,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5485,10 +5711,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
@@ -5578,16 +5804,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
